--- a/state_results/Rivers/RangitawaStreamatusHalcombeoxpond_eca35b02db.xlsx
+++ b/state_results/Rivers/RangitawaStreamatusHalcombeoxpond_eca35b02db.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U169"/>
+  <dimension ref="A1:U185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1153,7 +1153,7 @@
         <v>0.01426</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0325590424078147</v>
+        <v>0.0325594704937632</v>
       </c>
       <c r="H9" t="n">
         <v>0.511522717225151</v>
@@ -1234,7 +1234,7 @@
         <v>0.01426</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0325590424078147</v>
+        <v>0.0325594704937632</v>
       </c>
       <c r="H10" t="n">
         <v>0.511522717225151</v>
@@ -1315,7 +1315,7 @@
         <v>0.347</v>
       </c>
       <c r="G11" t="n">
-        <v>1.23403310068088</v>
+        <v>1.23401713757934</v>
       </c>
       <c r="H11" t="n">
         <v>9.5076</v>
@@ -1396,7 +1396,7 @@
         <v>0.347</v>
       </c>
       <c r="G12" t="n">
-        <v>1.23403310068088</v>
+        <v>1.23401713757934</v>
       </c>
       <c r="H12" t="n">
         <v>9.5076</v>
@@ -1473,10 +1473,10 @@
         <v>0.348</v>
       </c>
       <c r="G13" t="n">
-        <v>1.18413559322034</v>
+        <v>1.18393389830508</v>
       </c>
       <c r="H13" t="n">
-        <v>9.568</v>
+        <v>9.5679</v>
       </c>
       <c r="I13" t="n">
         <v>6.9874</v>
@@ -1550,10 +1550,10 @@
         <v>0.348</v>
       </c>
       <c r="G14" t="n">
-        <v>1.18413559322034</v>
+        <v>1.18393389830508</v>
       </c>
       <c r="H14" t="n">
-        <v>9.568</v>
+        <v>9.5679</v>
       </c>
       <c r="I14" t="n">
         <v>6.9874</v>
@@ -1939,7 +1939,7 @@
         <v>0.88</v>
       </c>
       <c r="G19" t="n">
-        <v>1.1864552782135</v>
+        <v>1.19263909688932</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
@@ -2522,7 +2522,7 @@
         <v>0.01196</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0290594238014497</v>
+        <v>0.0290598592681904</v>
       </c>
       <c r="H26" t="n">
         <v>0.511522717225151</v>
@@ -2603,7 +2603,7 @@
         <v>0.01196</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0290594238014497</v>
+        <v>0.0290598592681904</v>
       </c>
       <c r="H27" t="n">
         <v>0.511522717225151</v>
@@ -2684,7 +2684,7 @@
         <v>0.25</v>
       </c>
       <c r="G28" t="n">
-        <v>0.881254609040049</v>
+        <v>0.8812244023964</v>
       </c>
       <c r="H28" t="n">
         <v>9.5076</v>
@@ -2695,7 +2695,7 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>0.00637</v>
+        <v>0.00641</v>
       </c>
       <c r="M28" t="n">
         <v>1.1423</v>
@@ -2765,7 +2765,7 @@
         <v>0.25</v>
       </c>
       <c r="G29" t="n">
-        <v>0.881254609040049</v>
+        <v>0.8812244023964</v>
       </c>
       <c r="H29" t="n">
         <v>9.5076</v>
@@ -2776,7 +2776,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>0.00637</v>
+        <v>0.00641</v>
       </c>
       <c r="M29" t="n">
         <v>1.1423</v>
@@ -2839,13 +2839,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.322</v>
+        <v>0.3215</v>
       </c>
       <c r="G30" t="n">
-        <v>0.935338983050847</v>
+        <v>0.935115254237288</v>
       </c>
       <c r="H30" t="n">
-        <v>9.568</v>
+        <v>9.5679</v>
       </c>
       <c r="I30" t="n">
         <v>4.87735</v>
@@ -2859,7 +2859,7 @@
         <v>1.28539</v>
       </c>
       <c r="N30" t="n">
-        <v>2.52116</v>
+        <v>2.52132</v>
       </c>
       <c r="O30" t="n">
         <v>1811782</v>
@@ -2916,13 +2916,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.322</v>
+        <v>0.3215</v>
       </c>
       <c r="G31" t="n">
-        <v>0.935338983050847</v>
+        <v>0.935115254237288</v>
       </c>
       <c r="H31" t="n">
-        <v>9.568</v>
+        <v>9.5679</v>
       </c>
       <c r="I31" t="n">
         <v>4.87735</v>
@@ -2936,7 +2936,7 @@
         <v>1.28539</v>
       </c>
       <c r="N31" t="n">
-        <v>2.52116</v>
+        <v>2.52132</v>
       </c>
       <c r="O31" t="n">
         <v>1811782</v>
@@ -3810,7 +3810,7 @@
         <v>0.00603</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0276289512301782</v>
+        <v>0.0276326247594667</v>
       </c>
       <c r="H42" t="n">
         <v>0.511522717225151</v>
@@ -3891,7 +3891,7 @@
         <v>0.00603</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0276289512301782</v>
+        <v>0.0276326247594667</v>
       </c>
       <c r="H43" t="n">
         <v>0.511522717225151</v>
@@ -3972,7 +3972,7 @@
         <v>0.2</v>
       </c>
       <c r="G44" t="n">
-        <v>0.937276222722643</v>
+        <v>0.937244025990381</v>
       </c>
       <c r="H44" t="n">
         <v>9.5076</v>
@@ -3983,7 +3983,7 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>0.00225</v>
+        <v>0.00175</v>
       </c>
       <c r="M44" t="n">
         <v>1.529</v>
@@ -4053,7 +4053,7 @@
         <v>0.2</v>
       </c>
       <c r="G45" t="n">
-        <v>0.937276222722643</v>
+        <v>0.937244025990381</v>
       </c>
       <c r="H45" t="n">
         <v>9.5076</v>
@@ -4064,7 +4064,7 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>0.00225</v>
+        <v>0.00175</v>
       </c>
       <c r="M45" t="n">
         <v>1.529</v>
@@ -4130,10 +4130,10 @@
         <v>0.261</v>
       </c>
       <c r="G46" t="n">
-        <v>0.986189621012786</v>
+        <v>0.985940470738027</v>
       </c>
       <c r="H46" t="n">
-        <v>9.568</v>
+        <v>9.5679</v>
       </c>
       <c r="I46" t="n">
         <v>4.8585</v>
@@ -4147,7 +4147,7 @@
         <v>1.574</v>
       </c>
       <c r="N46" t="n">
-        <v>3.4177</v>
+        <v>3.41742</v>
       </c>
       <c r="O46" t="n">
         <v>1811782</v>
@@ -4207,10 +4207,10 @@
         <v>0.261</v>
       </c>
       <c r="G47" t="n">
-        <v>0.986189621012786</v>
+        <v>0.985940470738027</v>
       </c>
       <c r="H47" t="n">
-        <v>9.568</v>
+        <v>9.5679</v>
       </c>
       <c r="I47" t="n">
         <v>4.8585</v>
@@ -4224,7 +4224,7 @@
         <v>1.574</v>
       </c>
       <c r="N47" t="n">
-        <v>3.4177</v>
+        <v>3.41742</v>
       </c>
       <c r="O47" t="n">
         <v>1811782</v>
@@ -4596,13 +4596,13 @@
         <v>0.475</v>
       </c>
       <c r="G52" t="n">
-        <v>0.922469228960237</v>
+        <v>0.911846841109445</v>
       </c>
       <c r="H52" t="n">
         <v>3.4</v>
       </c>
       <c r="I52" t="n">
-        <v>2.95704</v>
+        <v>2.57992</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -4613,7 +4613,7 @@
         <v>1.92048</v>
       </c>
       <c r="N52" t="n">
-        <v>2.567</v>
+        <v>2.4887</v>
       </c>
       <c r="O52" t="n">
         <v>1811782</v>
@@ -5179,7 +5179,7 @@
         <v>0.00379</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0243139783210524</v>
+        <v>0.0243264296401488</v>
       </c>
       <c r="H59" t="n">
         <v>0.511522717225151</v>
@@ -5260,7 +5260,7 @@
         <v>0.00379</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0243139783210524</v>
+        <v>0.0243264296401488</v>
       </c>
       <c r="H60" t="n">
         <v>0.511522717225151</v>
@@ -5341,7 +5341,7 @@
         <v>0.11755</v>
       </c>
       <c r="G61" t="n">
-        <v>0.665429408989299</v>
+        <v>0.665403793143567</v>
       </c>
       <c r="H61" t="n">
         <v>9.5076</v>
@@ -5352,7 +5352,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>0.00094</v>
+        <v>0.00095</v>
       </c>
       <c r="M61" t="n">
         <v>1.127</v>
@@ -5422,7 +5422,7 @@
         <v>0.11755</v>
       </c>
       <c r="G62" t="n">
-        <v>0.665429408989299</v>
+        <v>0.665403793143567</v>
       </c>
       <c r="H62" t="n">
         <v>9.5076</v>
@@ -5433,7 +5433,7 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>0.00094</v>
+        <v>0.00095</v>
       </c>
       <c r="M62" t="n">
         <v>1.127</v>
@@ -5496,21 +5496,21 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.1295</v>
+        <v>0.12925</v>
       </c>
       <c r="G63" t="n">
-        <v>0.708520262126771</v>
+        <v>0.708247931289062</v>
       </c>
       <c r="H63" t="n">
-        <v>9.568</v>
+        <v>9.5679</v>
       </c>
       <c r="I63" t="n">
-        <v>2.6435</v>
+        <v>2.6436</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>0.00694</v>
+        <v>0.00455</v>
       </c>
       <c r="M63" t="n">
         <v>1.2281</v>
@@ -5573,21 +5573,21 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.1295</v>
+        <v>0.12925</v>
       </c>
       <c r="G64" t="n">
-        <v>0.708520262126771</v>
+        <v>0.708247931289062</v>
       </c>
       <c r="H64" t="n">
-        <v>9.568</v>
+        <v>9.5679</v>
       </c>
       <c r="I64" t="n">
-        <v>2.6435</v>
+        <v>2.6436</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>0.00694</v>
+        <v>0.00455</v>
       </c>
       <c r="M64" t="n">
         <v>1.2281</v>
@@ -5965,13 +5965,13 @@
         <v>0.44</v>
       </c>
       <c r="G69" t="n">
-        <v>0.772512264449948</v>
+        <v>0.76275115128976</v>
       </c>
       <c r="H69" t="n">
         <v>3.4</v>
       </c>
       <c r="I69" t="n">
-        <v>2.74927</v>
+        <v>2.45886</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -5982,7 +5982,7 @@
         <v>1.3294</v>
       </c>
       <c r="N69" t="n">
-        <v>2.10674</v>
+        <v>2.20691</v>
       </c>
       <c r="O69" t="n">
         <v>1811782</v>
@@ -6545,10 +6545,10 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.0035</v>
+        <v>0.00365</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0100088435418235</v>
+        <v>0.0100275605757504</v>
       </c>
       <c r="H76" t="n">
         <v>0.113106723204263</v>
@@ -6626,10 +6626,10 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.0035</v>
+        <v>0.00365</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0100088435418235</v>
+        <v>0.0100275605757504</v>
       </c>
       <c r="H77" t="n">
         <v>0.113106723204263</v>
@@ -6710,7 +6710,7 @@
         <v>0.11135</v>
       </c>
       <c r="G78" t="n">
-        <v>0.736922381128896</v>
+        <v>0.736899208492158</v>
       </c>
       <c r="H78" t="n">
         <v>9.5076</v>
@@ -6721,7 +6721,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>0.00138</v>
+        <v>0.00105</v>
       </c>
       <c r="M78" t="n">
         <v>1.621</v>
@@ -6791,7 +6791,7 @@
         <v>0.11135</v>
       </c>
       <c r="G79" t="n">
-        <v>0.736922381128896</v>
+        <v>0.736899208492158</v>
       </c>
       <c r="H79" t="n">
         <v>9.5076</v>
@@ -6802,7 +6802,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>0.00138</v>
+        <v>0.00105</v>
       </c>
       <c r="M79" t="n">
         <v>1.621</v>
@@ -6865,13 +6865,13 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.121</v>
+        <v>0.12075</v>
       </c>
       <c r="G80" t="n">
-        <v>0.767025483887021</v>
+        <v>0.7667468868985861</v>
       </c>
       <c r="H80" t="n">
-        <v>9.568</v>
+        <v>9.5679</v>
       </c>
       <c r="I80" t="n">
         <v>2.9435</v>
@@ -6879,13 +6879,13 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
-        <v>0.0066</v>
+        <v>0.00455</v>
       </c>
       <c r="M80" t="n">
         <v>1.768</v>
       </c>
       <c r="N80" t="n">
-        <v>2.5034</v>
+        <v>2.50354</v>
       </c>
       <c r="O80" t="n">
         <v>1811782</v>
@@ -6942,13 +6942,13 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.121</v>
+        <v>0.12075</v>
       </c>
       <c r="G81" t="n">
-        <v>0.767025483887021</v>
+        <v>0.7667468868985861</v>
       </c>
       <c r="H81" t="n">
-        <v>9.568</v>
+        <v>9.5679</v>
       </c>
       <c r="I81" t="n">
         <v>2.9435</v>
@@ -6956,13 +6956,13 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>0.0066</v>
+        <v>0.00455</v>
       </c>
       <c r="M81" t="n">
         <v>1.768</v>
       </c>
       <c r="N81" t="n">
-        <v>2.5034</v>
+        <v>2.50354</v>
       </c>
       <c r="O81" t="n">
         <v>1811782</v>
@@ -7334,13 +7334,13 @@
         <v>0.405</v>
       </c>
       <c r="G86" t="n">
-        <v>0.617094137729716</v>
+        <v>0.6084950618505029</v>
       </c>
       <c r="H86" t="n">
         <v>3.4</v>
       </c>
       <c r="I86" t="n">
-        <v>2.53711</v>
+        <v>2.42975</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -7351,7 +7351,7 @@
         <v>0.9536</v>
       </c>
       <c r="N86" t="n">
-        <v>1.54607</v>
+        <v>1.57204</v>
       </c>
       <c r="O86" t="n">
         <v>1811782</v>
@@ -7577,13 +7577,13 @@
         <v>700</v>
       </c>
       <c r="G89" t="n">
-        <v>5000.2830699981</v>
+        <v>4958.59766172856</v>
       </c>
       <c r="H89" t="n">
         <v>82000</v>
       </c>
       <c r="I89" t="n">
-        <v>20057.9921</v>
+        <v>19500</v>
       </c>
       <c r="J89" t="n">
         <v>60</v>
@@ -7598,7 +7598,7 @@
         <v>4426.2</v>
       </c>
       <c r="N89" t="n">
-        <v>16861</v>
+        <v>15891.40179</v>
       </c>
       <c r="O89" t="n">
         <v>1811782</v>
@@ -7662,13 +7662,13 @@
         <v>700</v>
       </c>
       <c r="G90" t="n">
-        <v>5000.2830699981</v>
+        <v>4958.59766172856</v>
       </c>
       <c r="H90" t="n">
         <v>82000</v>
       </c>
       <c r="I90" t="n">
-        <v>20057.9921</v>
+        <v>19500</v>
       </c>
       <c r="J90" t="n">
         <v>60</v>
@@ -7683,7 +7683,7 @@
         <v>4426.2</v>
       </c>
       <c r="N90" t="n">
-        <v>16861</v>
+        <v>15891.40179</v>
       </c>
       <c r="O90" t="n">
         <v>1811782</v>
@@ -7747,13 +7747,13 @@
         <v>700</v>
       </c>
       <c r="G91" t="n">
-        <v>5000.2830699981</v>
+        <v>4958.59766172856</v>
       </c>
       <c r="H91" t="n">
         <v>82000</v>
       </c>
       <c r="I91" t="n">
-        <v>20057.9921</v>
+        <v>19500</v>
       </c>
       <c r="J91" t="n">
         <v>60</v>
@@ -7768,7 +7768,7 @@
         <v>4426.2</v>
       </c>
       <c r="N91" t="n">
-        <v>16861</v>
+        <v>15891.40179</v>
       </c>
       <c r="O91" t="n">
         <v>1811782</v>
@@ -7832,13 +7832,13 @@
         <v>700</v>
       </c>
       <c r="G92" t="n">
-        <v>5000.2830699981</v>
+        <v>4958.59766172856</v>
       </c>
       <c r="H92" t="n">
         <v>82000</v>
       </c>
       <c r="I92" t="n">
-        <v>20057.9921</v>
+        <v>19500</v>
       </c>
       <c r="J92" t="n">
         <v>60</v>
@@ -7853,7 +7853,7 @@
         <v>4426.2</v>
       </c>
       <c r="N92" t="n">
-        <v>16861</v>
+        <v>15891.40179</v>
       </c>
       <c r="O92" t="n">
         <v>1811782</v>
@@ -7917,7 +7917,7 @@
         <v>0.00393</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1168315284411</v>
+        <v>0.116852424768962</v>
       </c>
       <c r="H93" t="n">
         <v>6.12270941047719</v>
@@ -7928,7 +7928,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
-        <v>0.00165</v>
+        <v>0.00168</v>
       </c>
       <c r="M93" t="n">
         <v>0.01666</v>
@@ -7998,7 +7998,7 @@
         <v>0.00393</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1168315284411</v>
+        <v>0.116852424768962</v>
       </c>
       <c r="H94" t="n">
         <v>6.12270941047719</v>
@@ -8009,7 +8009,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>0.00165</v>
+        <v>0.00168</v>
       </c>
       <c r="M94" t="n">
         <v>0.01666</v>
@@ -8079,7 +8079,7 @@
         <v>0.11135</v>
       </c>
       <c r="G95" t="n">
-        <v>0.583440398682466</v>
+        <v>0.583445208538483</v>
       </c>
       <c r="H95" t="n">
         <v>3.674</v>
@@ -8090,7 +8090,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
-        <v>0.00187</v>
+        <v>0.0015</v>
       </c>
       <c r="M95" t="n">
         <v>1.556</v>
@@ -8160,7 +8160,7 @@
         <v>0.11135</v>
       </c>
       <c r="G96" t="n">
-        <v>0.583440398682466</v>
+        <v>0.583445208538483</v>
       </c>
       <c r="H96" t="n">
         <v>3.674</v>
@@ -8171,7 +8171,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
-        <v>0.00187</v>
+        <v>0.0015</v>
       </c>
       <c r="M96" t="n">
         <v>1.556</v>
@@ -8234,10 +8234,10 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.1335</v>
+        <v>0.13325</v>
       </c>
       <c r="G97" t="n">
-        <v>0.82767059958291</v>
+        <v>0.827573301052012</v>
       </c>
       <c r="H97" t="n">
         <v>12.72</v>
@@ -8248,13 +8248,13 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
-        <v>0.0066</v>
+        <v>0.00627</v>
       </c>
       <c r="M97" t="n">
         <v>1.756</v>
       </c>
       <c r="N97" t="n">
-        <v>2.453</v>
+        <v>2.45314</v>
       </c>
       <c r="O97" t="n">
         <v>1811782</v>
@@ -8311,10 +8311,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.1335</v>
+        <v>0.13325</v>
       </c>
       <c r="G98" t="n">
-        <v>0.82767059958291</v>
+        <v>0.827573301052012</v>
       </c>
       <c r="H98" t="n">
         <v>12.72</v>
@@ -8325,13 +8325,13 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>0.0066</v>
+        <v>0.00627</v>
       </c>
       <c r="M98" t="n">
         <v>1.756</v>
       </c>
       <c r="N98" t="n">
-        <v>2.453</v>
+        <v>2.45314</v>
       </c>
       <c r="O98" t="n">
         <v>1811782</v>
@@ -8703,10 +8703,10 @@
         <v>0.33</v>
       </c>
       <c r="G103" t="n">
-        <v>0.446983614842864</v>
+        <v>0.434270225373061</v>
       </c>
       <c r="H103" t="n">
-        <v>3.04629543824314</v>
+        <v>2.49961969104162</v>
       </c>
       <c r="I103" t="n">
         <v>1.349</v>
@@ -8946,13 +8946,13 @@
         <v>595</v>
       </c>
       <c r="G106" t="n">
-        <v>4615.56640333144</v>
+        <v>4573.88099506189</v>
       </c>
       <c r="H106" t="n">
         <v>82000</v>
       </c>
       <c r="I106" t="n">
-        <v>20057.9921</v>
+        <v>19500</v>
       </c>
       <c r="J106" t="n">
         <v>53.3333333333333</v>
@@ -8967,7 +8967,7 @@
         <v>3069.8</v>
       </c>
       <c r="N106" t="n">
-        <v>16210</v>
+        <v>15240.40179</v>
       </c>
       <c r="O106" t="n">
         <v>1811782</v>
@@ -9031,13 +9031,13 @@
         <v>595</v>
       </c>
       <c r="G107" t="n">
-        <v>4615.56640333144</v>
+        <v>4573.88099506189</v>
       </c>
       <c r="H107" t="n">
         <v>82000</v>
       </c>
       <c r="I107" t="n">
-        <v>20057.9921</v>
+        <v>19500</v>
       </c>
       <c r="J107" t="n">
         <v>53.3333333333333</v>
@@ -9052,7 +9052,7 @@
         <v>3069.8</v>
       </c>
       <c r="N107" t="n">
-        <v>16210</v>
+        <v>15240.40179</v>
       </c>
       <c r="O107" t="n">
         <v>1811782</v>
@@ -9116,13 +9116,13 @@
         <v>595</v>
       </c>
       <c r="G108" t="n">
-        <v>4615.56640333144</v>
+        <v>4573.88099506189</v>
       </c>
       <c r="H108" t="n">
         <v>82000</v>
       </c>
       <c r="I108" t="n">
-        <v>20057.9921</v>
+        <v>19500</v>
       </c>
       <c r="J108" t="n">
         <v>53.3333333333333</v>
@@ -9137,7 +9137,7 @@
         <v>3069.8</v>
       </c>
       <c r="N108" t="n">
-        <v>16210</v>
+        <v>15240.40179</v>
       </c>
       <c r="O108" t="n">
         <v>1811782</v>
@@ -9201,13 +9201,13 @@
         <v>595</v>
       </c>
       <c r="G109" t="n">
-        <v>4615.56640333144</v>
+        <v>4573.88099506189</v>
       </c>
       <c r="H109" t="n">
         <v>82000</v>
       </c>
       <c r="I109" t="n">
-        <v>20057.9921</v>
+        <v>19500</v>
       </c>
       <c r="J109" t="n">
         <v>53.3333333333333</v>
@@ -9222,7 +9222,7 @@
         <v>3069.8</v>
       </c>
       <c r="N109" t="n">
-        <v>16210</v>
+        <v>15240.40179</v>
       </c>
       <c r="O109" t="n">
         <v>1811782</v>
@@ -9286,7 +9286,7 @@
         <v>0.00768</v>
       </c>
       <c r="G110" t="n">
-        <v>0.117648555594831</v>
+        <v>0.117671295005434</v>
       </c>
       <c r="H110" t="n">
         <v>6.12270941047719</v>
@@ -9297,7 +9297,7 @@
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
-        <v>0.00254</v>
+        <v>0.00265</v>
       </c>
       <c r="M110" t="n">
         <v>0.01654</v>
@@ -9367,7 +9367,7 @@
         <v>0.00768</v>
       </c>
       <c r="G111" t="n">
-        <v>0.117648555594831</v>
+        <v>0.117671295005434</v>
       </c>
       <c r="H111" t="n">
         <v>6.12270941047719</v>
@@ -9378,7 +9378,7 @@
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
-        <v>0.00254</v>
+        <v>0.00265</v>
       </c>
       <c r="M111" t="n">
         <v>0.01654</v>
@@ -9448,7 +9448,7 @@
         <v>0.1015</v>
       </c>
       <c r="G112" t="n">
-        <v>0.6302570653491329</v>
+        <v>0.630278541871817</v>
       </c>
       <c r="H112" t="n">
         <v>4.03</v>
@@ -9459,7 +9459,7 @@
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
-        <v>0.00316</v>
+        <v>0.00327</v>
       </c>
       <c r="M112" t="n">
         <v>1.556</v>
@@ -9529,7 +9529,7 @@
         <v>0.1015</v>
       </c>
       <c r="G113" t="n">
-        <v>0.6302570653491329</v>
+        <v>0.630278541871817</v>
       </c>
       <c r="H113" t="n">
         <v>4.03</v>
@@ -9540,7 +9540,7 @@
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
-        <v>0.00316</v>
+        <v>0.00327</v>
       </c>
       <c r="M113" t="n">
         <v>1.556</v>
@@ -9603,21 +9603,21 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0.1195</v>
+        <v>0.11925</v>
       </c>
       <c r="G114" t="n">
-        <v>0.876453932916244</v>
+        <v>0.876378301052012</v>
       </c>
       <c r="H114" t="n">
         <v>12.72</v>
       </c>
       <c r="I114" t="n">
-        <v>3.444</v>
+        <v>3.4438</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
-        <v>0.01032</v>
+        <v>0.01012</v>
       </c>
       <c r="M114" t="n">
         <v>1.756</v>
@@ -9680,21 +9680,21 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0.1195</v>
+        <v>0.11925</v>
       </c>
       <c r="G115" t="n">
-        <v>0.876453932916244</v>
+        <v>0.876378301052012</v>
       </c>
       <c r="H115" t="n">
         <v>12.72</v>
       </c>
       <c r="I115" t="n">
-        <v>3.444</v>
+        <v>3.4438</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
-        <v>0.01032</v>
+        <v>0.01012</v>
       </c>
       <c r="M115" t="n">
         <v>1.756</v>
@@ -10315,13 +10315,13 @@
         <v>520</v>
       </c>
       <c r="G123" t="n">
-        <v>2962.64379999807</v>
+        <v>2920.25185938498</v>
       </c>
       <c r="H123" t="n">
         <v>69000</v>
       </c>
       <c r="I123" t="n">
-        <v>15365</v>
+        <v>14053.17284</v>
       </c>
       <c r="J123" t="n">
         <v>49.1525423728814</v>
@@ -10400,13 +10400,13 @@
         <v>520</v>
       </c>
       <c r="G124" t="n">
-        <v>2962.64379999807</v>
+        <v>2920.25185938498</v>
       </c>
       <c r="H124" t="n">
         <v>69000</v>
       </c>
       <c r="I124" t="n">
-        <v>15365</v>
+        <v>14053.17284</v>
       </c>
       <c r="J124" t="n">
         <v>49.1525423728814</v>
@@ -10485,13 +10485,13 @@
         <v>520</v>
       </c>
       <c r="G125" t="n">
-        <v>2962.64379999807</v>
+        <v>2920.25185938498</v>
       </c>
       <c r="H125" t="n">
         <v>69000</v>
       </c>
       <c r="I125" t="n">
-        <v>15365</v>
+        <v>14053.17284</v>
       </c>
       <c r="J125" t="n">
         <v>49.1525423728814</v>
@@ -10570,13 +10570,13 @@
         <v>520</v>
       </c>
       <c r="G126" t="n">
-        <v>2962.64379999807</v>
+        <v>2920.25185938498</v>
       </c>
       <c r="H126" t="n">
         <v>69000</v>
       </c>
       <c r="I126" t="n">
-        <v>15365</v>
+        <v>14053.17284</v>
       </c>
       <c r="J126" t="n">
         <v>49.1525423728814</v>
@@ -10655,7 +10655,7 @@
         <v>0.00797</v>
       </c>
       <c r="G127" t="n">
-        <v>0.127575544344098</v>
+        <v>0.127596339581587</v>
       </c>
       <c r="H127" t="n">
         <v>6.12270941047719</v>
@@ -10736,7 +10736,7 @@
         <v>0.00797</v>
       </c>
       <c r="G128" t="n">
-        <v>0.127575544344098</v>
+        <v>0.127596339581587</v>
       </c>
       <c r="H128" t="n">
         <v>6.12270941047719</v>
@@ -10817,7 +10817,7 @@
         <v>0.1</v>
       </c>
       <c r="G129" t="n">
-        <v>0.611633579028527</v>
+        <v>0.611666123182135</v>
       </c>
       <c r="H129" t="n">
         <v>4.3</v>
@@ -10898,7 +10898,7 @@
         <v>0.1</v>
       </c>
       <c r="G130" t="n">
-        <v>0.611633579028527</v>
+        <v>0.611666123182135</v>
       </c>
       <c r="H130" t="n">
         <v>4.3</v>
@@ -10975,7 +10975,7 @@
         <v>0.12</v>
       </c>
       <c r="G131" t="n">
-        <v>0.860217944308601</v>
+        <v>0.860182539302358</v>
       </c>
       <c r="H131" t="n">
         <v>12.72</v>
@@ -11052,7 +11052,7 @@
         <v>0.12</v>
       </c>
       <c r="G132" t="n">
-        <v>0.860217944308601</v>
+        <v>0.860182539302358</v>
       </c>
       <c r="H132" t="n">
         <v>12.72</v>
@@ -11684,10 +11684,10 @@
         <v>510</v>
       </c>
       <c r="G140" t="n">
-        <v>1440.52515593027</v>
+        <v>1398.13321531718</v>
       </c>
       <c r="H140" t="n">
-        <v>20115.9841998861</v>
+        <v>17614.8597037136</v>
       </c>
       <c r="I140" t="n">
         <v>5165</v>
@@ -11769,10 +11769,10 @@
         <v>510</v>
       </c>
       <c r="G141" t="n">
-        <v>1440.52515593027</v>
+        <v>1398.13321531718</v>
       </c>
       <c r="H141" t="n">
-        <v>20115.9841998861</v>
+        <v>17614.8597037136</v>
       </c>
       <c r="I141" t="n">
         <v>5165</v>
@@ -11854,10 +11854,10 @@
         <v>510</v>
       </c>
       <c r="G142" t="n">
-        <v>1440.52515593027</v>
+        <v>1398.13321531718</v>
       </c>
       <c r="H142" t="n">
-        <v>20115.9841998861</v>
+        <v>17614.8597037136</v>
       </c>
       <c r="I142" t="n">
         <v>5165</v>
@@ -11939,10 +11939,10 @@
         <v>510</v>
       </c>
       <c r="G143" t="n">
-        <v>1440.52515593027</v>
+        <v>1398.13321531718</v>
       </c>
       <c r="H143" t="n">
-        <v>20115.9841998861</v>
+        <v>17614.8597037136</v>
       </c>
       <c r="I143" t="n">
         <v>5165</v>
@@ -12024,7 +12024,7 @@
         <v>0.00827</v>
       </c>
       <c r="G144" t="n">
-        <v>0.125704040693608</v>
+        <v>0.125715064429235</v>
       </c>
       <c r="H144" t="n">
         <v>6.12270941047719</v>
@@ -12105,7 +12105,7 @@
         <v>0.00827</v>
       </c>
       <c r="G145" t="n">
-        <v>0.125704040693608</v>
+        <v>0.125715064429235</v>
       </c>
       <c r="H145" t="n">
         <v>6.12270941047719</v>
@@ -12186,7 +12186,7 @@
         <v>0.055</v>
       </c>
       <c r="G146" t="n">
-        <v>0.611359420200001</v>
+        <v>0.611401260481597</v>
       </c>
       <c r="H146" t="n">
         <v>4.3</v>
@@ -12267,7 +12267,7 @@
         <v>0.055</v>
       </c>
       <c r="G147" t="n">
-        <v>0.611359420200001</v>
+        <v>0.611401260481597</v>
       </c>
       <c r="H147" t="n">
         <v>4.3</v>
@@ -12344,7 +12344,7 @@
         <v>0.144</v>
       </c>
       <c r="G148" t="n">
-        <v>0.8560172923282779</v>
+        <v>0.856005460775882</v>
       </c>
       <c r="H148" t="n">
         <v>12.72</v>
@@ -12421,7 +12421,7 @@
         <v>0.144</v>
       </c>
       <c r="G149" t="n">
-        <v>0.8560172923282779</v>
+        <v>0.856005460775882</v>
       </c>
       <c r="H149" t="n">
         <v>12.72</v>
@@ -12972,10 +12972,10 @@
         <v>470</v>
       </c>
       <c r="G156" t="n">
-        <v>1281.39627930838</v>
+        <v>1238.27344316748</v>
       </c>
       <c r="H156" t="n">
-        <v>20115.9841998861</v>
+        <v>17614.8597037136</v>
       </c>
       <c r="I156" t="n">
         <v>3420</v>
@@ -13057,10 +13057,10 @@
         <v>470</v>
       </c>
       <c r="G157" t="n">
-        <v>1281.39627930838</v>
+        <v>1238.27344316748</v>
       </c>
       <c r="H157" t="n">
-        <v>20115.9841998861</v>
+        <v>17614.8597037136</v>
       </c>
       <c r="I157" t="n">
         <v>3420</v>
@@ -13142,10 +13142,10 @@
         <v>470</v>
       </c>
       <c r="G158" t="n">
-        <v>1281.39627930838</v>
+        <v>1238.27344316748</v>
       </c>
       <c r="H158" t="n">
-        <v>20115.9841998861</v>
+        <v>17614.8597037136</v>
       </c>
       <c r="I158" t="n">
         <v>3420</v>
@@ -13227,10 +13227,10 @@
         <v>470</v>
       </c>
       <c r="G159" t="n">
-        <v>1281.39627930838</v>
+        <v>1238.27344316748</v>
       </c>
       <c r="H159" t="n">
-        <v>20115.9841998861</v>
+        <v>17614.8597037136</v>
       </c>
       <c r="I159" t="n">
         <v>3420</v>
@@ -13312,7 +13312,7 @@
         <v>0.008240000000000001</v>
       </c>
       <c r="G160" t="n">
-        <v>0.128267367024335</v>
+        <v>0.128271493578436</v>
       </c>
       <c r="H160" t="n">
         <v>6.12270941047719</v>
@@ -13393,7 +13393,7 @@
         <v>0.008240000000000001</v>
       </c>
       <c r="G161" t="n">
-        <v>0.128267367024335</v>
+        <v>0.128271493578436</v>
       </c>
       <c r="H161" t="n">
         <v>6.12270941047719</v>
@@ -13474,7 +13474,7 @@
         <v>0.043</v>
       </c>
       <c r="G162" t="n">
-        <v>0.555180551603303</v>
+        <v>0.55522048736528</v>
       </c>
       <c r="H162" t="n">
         <v>4.3</v>
@@ -13555,7 +13555,7 @@
         <v>0.043</v>
       </c>
       <c r="G163" t="n">
-        <v>0.555180551603303</v>
+        <v>0.55522048736528</v>
       </c>
       <c r="H163" t="n">
         <v>4.3</v>
@@ -13632,7 +13632,7 @@
         <v>0.133</v>
       </c>
       <c r="G164" t="n">
-        <v>0.803839774857817</v>
+        <v>0.803834221538028</v>
       </c>
       <c r="H164" t="n">
         <v>12.72</v>
@@ -13709,7 +13709,7 @@
         <v>0.133</v>
       </c>
       <c r="G165" t="n">
-        <v>0.803839774857817</v>
+        <v>0.803834221538028</v>
       </c>
       <c r="H165" t="n">
         <v>12.72</v>
@@ -14068,6 +14068,1294 @@
         </is>
       </c>
     </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at us Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.0194137931034483</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0.0386</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0.02864</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0.03472</v>
+      </c>
+      <c r="O170" t="n">
+        <v>1811782</v>
+      </c>
+      <c r="P170" t="n">
+        <v>5554501</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T170" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at us Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.0194137931034483</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0.0386</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0.02864</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0.03472</v>
+      </c>
+      <c r="O171" t="n">
+        <v>1811782</v>
+      </c>
+      <c r="P171" t="n">
+        <v>5554501</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T171" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at us Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>342</v>
+      </c>
+      <c r="G172" t="n">
+        <v>731.0689655172411</v>
+      </c>
+      <c r="H172" t="n">
+        <v>6932</v>
+      </c>
+      <c r="I172" t="n">
+        <v>2600</v>
+      </c>
+      <c r="J172" t="n">
+        <v>31.0344827586207</v>
+      </c>
+      <c r="K172" t="n">
+        <v>63.7931034482759</v>
+      </c>
+      <c r="L172" t="n">
+        <v>360</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1178.4</v>
+      </c>
+      <c r="N172" t="n">
+        <v>2272</v>
+      </c>
+      <c r="O172" t="n">
+        <v>1811782</v>
+      </c>
+      <c r="P172" t="n">
+        <v>5554501</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T172" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at us Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>342</v>
+      </c>
+      <c r="G173" t="n">
+        <v>731.0689655172411</v>
+      </c>
+      <c r="H173" t="n">
+        <v>6932</v>
+      </c>
+      <c r="I173" t="n">
+        <v>2600</v>
+      </c>
+      <c r="J173" t="n">
+        <v>31.0344827586207</v>
+      </c>
+      <c r="K173" t="n">
+        <v>63.7931034482759</v>
+      </c>
+      <c r="L173" t="n">
+        <v>360</v>
+      </c>
+      <c r="M173" t="n">
+        <v>1178.4</v>
+      </c>
+      <c r="N173" t="n">
+        <v>2272</v>
+      </c>
+      <c r="O173" t="n">
+        <v>1811782</v>
+      </c>
+      <c r="P173" t="n">
+        <v>5554501</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T173" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at us Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>342</v>
+      </c>
+      <c r="G174" t="n">
+        <v>731.0689655172411</v>
+      </c>
+      <c r="H174" t="n">
+        <v>6932</v>
+      </c>
+      <c r="I174" t="n">
+        <v>2600</v>
+      </c>
+      <c r="J174" t="n">
+        <v>31.0344827586207</v>
+      </c>
+      <c r="K174" t="n">
+        <v>63.7931034482759</v>
+      </c>
+      <c r="L174" t="n">
+        <v>360</v>
+      </c>
+      <c r="M174" t="n">
+        <v>1178.4</v>
+      </c>
+      <c r="N174" t="n">
+        <v>2272</v>
+      </c>
+      <c r="O174" t="n">
+        <v>1811782</v>
+      </c>
+      <c r="P174" t="n">
+        <v>5554501</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T174" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at us Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>342</v>
+      </c>
+      <c r="G175" t="n">
+        <v>731.0689655172411</v>
+      </c>
+      <c r="H175" t="n">
+        <v>6932</v>
+      </c>
+      <c r="I175" t="n">
+        <v>2600</v>
+      </c>
+      <c r="J175" t="n">
+        <v>31.0344827586207</v>
+      </c>
+      <c r="K175" t="n">
+        <v>63.7931034482759</v>
+      </c>
+      <c r="L175" t="n">
+        <v>360</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1178.4</v>
+      </c>
+      <c r="N175" t="n">
+        <v>2272</v>
+      </c>
+      <c r="O175" t="n">
+        <v>1811782</v>
+      </c>
+      <c r="P175" t="n">
+        <v>5554501</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T175" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at us Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>0.00793</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.010072787272866</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.0353715299578529</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0.02911</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>0.00595</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0.01699</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0.02532</v>
+      </c>
+      <c r="O176" t="n">
+        <v>1811782</v>
+      </c>
+      <c r="P176" t="n">
+        <v>5554501</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T176" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at us Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>0.00793</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.010072787272866</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.0353715299578529</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.02911</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>0.00595</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0.01699</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0.02532</v>
+      </c>
+      <c r="O177" t="n">
+        <v>1811782</v>
+      </c>
+      <c r="P177" t="n">
+        <v>5554501</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T177" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at us Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.527206995001571</v>
+      </c>
+      <c r="H178" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I178" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="M178" t="n">
+        <v>1.0648</v>
+      </c>
+      <c r="N178" t="n">
+        <v>2.5174</v>
+      </c>
+      <c r="O178" t="n">
+        <v>1811782</v>
+      </c>
+      <c r="P178" t="n">
+        <v>5554501</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T178" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at us Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.527206995001571</v>
+      </c>
+      <c r="H179" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I179" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="M179" t="n">
+        <v>1.0648</v>
+      </c>
+      <c r="N179" t="n">
+        <v>2.5174</v>
+      </c>
+      <c r="O179" t="n">
+        <v>1811782</v>
+      </c>
+      <c r="P179" t="n">
+        <v>5554501</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T179" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at us Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.557241379310345</v>
+      </c>
+      <c r="H180" t="n">
+        <v>4.338</v>
+      </c>
+      <c r="I180" t="n">
+        <v>3.0598</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M180" t="n">
+        <v>1.09824</v>
+      </c>
+      <c r="N180" t="n">
+        <v>2.58298</v>
+      </c>
+      <c r="O180" t="n">
+        <v>1811782</v>
+      </c>
+      <c r="P180" t="n">
+        <v>5554501</v>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T180" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at us Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.557241379310345</v>
+      </c>
+      <c r="H181" t="n">
+        <v>4.338</v>
+      </c>
+      <c r="I181" t="n">
+        <v>3.0598</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M181" t="n">
+        <v>1.09824</v>
+      </c>
+      <c r="N181" t="n">
+        <v>2.58298</v>
+      </c>
+      <c r="O181" t="n">
+        <v>1811782</v>
+      </c>
+      <c r="P181" t="n">
+        <v>5554501</v>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T181" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at us Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1.1998275862069</v>
+      </c>
+      <c r="H182" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="I182" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="M182" t="n">
+        <v>1.934</v>
+      </c>
+      <c r="N182" t="n">
+        <v>3.6016</v>
+      </c>
+      <c r="O182" t="n">
+        <v>1811782</v>
+      </c>
+      <c r="P182" t="n">
+        <v>5554501</v>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T182" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at us Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1.1998275862069</v>
+      </c>
+      <c r="H183" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="I183" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="M183" t="n">
+        <v>1.934</v>
+      </c>
+      <c r="N183" t="n">
+        <v>3.6016</v>
+      </c>
+      <c r="O183" t="n">
+        <v>1811782</v>
+      </c>
+      <c r="P183" t="n">
+        <v>5554501</v>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T183" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at us Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>0.1005</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.119931034482759</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0.2926</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0.14904</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0.26554</v>
+      </c>
+      <c r="O184" t="n">
+        <v>1811782</v>
+      </c>
+      <c r="P184" t="n">
+        <v>5554501</v>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T184" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at us Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>0.1005</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.119931034482759</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0.2926</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0.14904</v>
+      </c>
+      <c r="N185" t="n">
+        <v>0.26554</v>
+      </c>
+      <c r="O185" t="n">
+        <v>1811782</v>
+      </c>
+      <c r="P185" t="n">
+        <v>5554501</v>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T185" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/RangitawaStreamatusHalcombeoxpond_eca35b02db.xlsx
+++ b/state_results/Rivers/RangitawaStreamatusHalcombeoxpond_eca35b02db.xlsx
@@ -1939,7 +1939,7 @@
         <v>0.88</v>
       </c>
       <c r="G19" t="n">
-        <v>1.19263909688932</v>
+        <v>1.20693551238807</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
@@ -1953,10 +1953,10 @@
         <v>0.6</v>
       </c>
       <c r="M19" t="n">
-        <v>2.42</v>
+        <v>2.51</v>
       </c>
       <c r="N19" t="n">
-        <v>2.65</v>
+        <v>2.84086</v>
       </c>
       <c r="O19" t="n">
         <v>1811782</v>
@@ -4596,13 +4596,13 @@
         <v>0.475</v>
       </c>
       <c r="G52" t="n">
-        <v>0.911846841109445</v>
+        <v>0.9749875549414651</v>
       </c>
       <c r="H52" t="n">
-        <v>3.4</v>
+        <v>4.21751149636777</v>
       </c>
       <c r="I52" t="n">
-        <v>2.57992</v>
+        <v>3.28241</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -4613,7 +4613,7 @@
         <v>1.92048</v>
       </c>
       <c r="N52" t="n">
-        <v>2.4887</v>
+        <v>2.76541</v>
       </c>
       <c r="O52" t="n">
         <v>1811782</v>
@@ -5965,13 +5965,13 @@
         <v>0.44</v>
       </c>
       <c r="G69" t="n">
-        <v>0.76275115128976</v>
+        <v>0.820772347784049</v>
       </c>
       <c r="H69" t="n">
-        <v>3.4</v>
+        <v>4.21751149636777</v>
       </c>
       <c r="I69" t="n">
-        <v>2.45886</v>
+        <v>3.19422</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -5982,7 +5982,7 @@
         <v>1.3294</v>
       </c>
       <c r="N69" t="n">
-        <v>2.20691</v>
+        <v>2.43852</v>
       </c>
       <c r="O69" t="n">
         <v>1811782</v>
@@ -7334,13 +7334,13 @@
         <v>0.405</v>
       </c>
       <c r="G86" t="n">
-        <v>0.6084950618505029</v>
+        <v>0.659608973047853</v>
       </c>
       <c r="H86" t="n">
-        <v>3.4</v>
+        <v>4.21751149636777</v>
       </c>
       <c r="I86" t="n">
-        <v>2.42975</v>
+        <v>3.04724</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -7351,7 +7351,7 @@
         <v>0.9536</v>
       </c>
       <c r="N86" t="n">
-        <v>1.57204</v>
+        <v>1.63209</v>
       </c>
       <c r="O86" t="n">
         <v>1811782</v>
@@ -7577,7 +7577,7 @@
         <v>700</v>
       </c>
       <c r="G89" t="n">
-        <v>4958.59766172856</v>
+        <v>4877.68965084476</v>
       </c>
       <c r="H89" t="n">
         <v>82000</v>
@@ -7598,7 +7598,7 @@
         <v>4426.2</v>
       </c>
       <c r="N89" t="n">
-        <v>15891.40179</v>
+        <v>12493.26534</v>
       </c>
       <c r="O89" t="n">
         <v>1811782</v>
@@ -7662,7 +7662,7 @@
         <v>700</v>
       </c>
       <c r="G90" t="n">
-        <v>4958.59766172856</v>
+        <v>4877.68965084476</v>
       </c>
       <c r="H90" t="n">
         <v>82000</v>
@@ -7683,7 +7683,7 @@
         <v>4426.2</v>
       </c>
       <c r="N90" t="n">
-        <v>15891.40179</v>
+        <v>12493.26534</v>
       </c>
       <c r="O90" t="n">
         <v>1811782</v>
@@ -7747,7 +7747,7 @@
         <v>700</v>
       </c>
       <c r="G91" t="n">
-        <v>4958.59766172856</v>
+        <v>4877.68965084476</v>
       </c>
       <c r="H91" t="n">
         <v>82000</v>
@@ -7768,7 +7768,7 @@
         <v>4426.2</v>
       </c>
       <c r="N91" t="n">
-        <v>15891.40179</v>
+        <v>12493.26534</v>
       </c>
       <c r="O91" t="n">
         <v>1811782</v>
@@ -7832,7 +7832,7 @@
         <v>700</v>
       </c>
       <c r="G92" t="n">
-        <v>4958.59766172856</v>
+        <v>4877.68965084476</v>
       </c>
       <c r="H92" t="n">
         <v>82000</v>
@@ -7853,7 +7853,7 @@
         <v>4426.2</v>
       </c>
       <c r="N92" t="n">
-        <v>15891.40179</v>
+        <v>12493.26534</v>
       </c>
       <c r="O92" t="n">
         <v>1811782</v>
@@ -8703,10 +8703,10 @@
         <v>0.33</v>
       </c>
       <c r="G103" t="n">
-        <v>0.434270225373061</v>
+        <v>0.474221197589948</v>
       </c>
       <c r="H103" t="n">
-        <v>2.49961969104162</v>
+        <v>4.21751149636777</v>
       </c>
       <c r="I103" t="n">
         <v>1.349</v>
@@ -8946,7 +8946,7 @@
         <v>595</v>
       </c>
       <c r="G106" t="n">
-        <v>4573.88099506189</v>
+        <v>4492.97298417809</v>
       </c>
       <c r="H106" t="n">
         <v>82000</v>
@@ -8967,7 +8967,7 @@
         <v>3069.8</v>
       </c>
       <c r="N106" t="n">
-        <v>15240.40179</v>
+        <v>11842.26534</v>
       </c>
       <c r="O106" t="n">
         <v>1811782</v>
@@ -9031,7 +9031,7 @@
         <v>595</v>
       </c>
       <c r="G107" t="n">
-        <v>4573.88099506189</v>
+        <v>4492.97298417809</v>
       </c>
       <c r="H107" t="n">
         <v>82000</v>
@@ -9052,7 +9052,7 @@
         <v>3069.8</v>
       </c>
       <c r="N107" t="n">
-        <v>15240.40179</v>
+        <v>11842.26534</v>
       </c>
       <c r="O107" t="n">
         <v>1811782</v>
@@ -9116,7 +9116,7 @@
         <v>595</v>
       </c>
       <c r="G108" t="n">
-        <v>4573.88099506189</v>
+        <v>4492.97298417809</v>
       </c>
       <c r="H108" t="n">
         <v>82000</v>
@@ -9137,7 +9137,7 @@
         <v>3069.8</v>
       </c>
       <c r="N108" t="n">
-        <v>15240.40179</v>
+        <v>11842.26534</v>
       </c>
       <c r="O108" t="n">
         <v>1811782</v>
@@ -9201,7 +9201,7 @@
         <v>595</v>
       </c>
       <c r="G109" t="n">
-        <v>4573.88099506189</v>
+        <v>4492.97298417809</v>
       </c>
       <c r="H109" t="n">
         <v>82000</v>
@@ -9222,7 +9222,7 @@
         <v>3069.8</v>
       </c>
       <c r="N109" t="n">
-        <v>15240.40179</v>
+        <v>11842.26534</v>
       </c>
       <c r="O109" t="n">
         <v>1811782</v>
@@ -10315,13 +10315,13 @@
         <v>520</v>
       </c>
       <c r="G123" t="n">
-        <v>2920.25185938498</v>
+        <v>2837.97252628281</v>
       </c>
       <c r="H123" t="n">
         <v>69000</v>
       </c>
       <c r="I123" t="n">
-        <v>14053.17284</v>
+        <v>11383.20848</v>
       </c>
       <c r="J123" t="n">
         <v>49.1525423728814</v>
@@ -10400,13 +10400,13 @@
         <v>520</v>
       </c>
       <c r="G124" t="n">
-        <v>2920.25185938498</v>
+        <v>2837.97252628281</v>
       </c>
       <c r="H124" t="n">
         <v>69000</v>
       </c>
       <c r="I124" t="n">
-        <v>14053.17284</v>
+        <v>11383.20848</v>
       </c>
       <c r="J124" t="n">
         <v>49.1525423728814</v>
@@ -10485,13 +10485,13 @@
         <v>520</v>
       </c>
       <c r="G125" t="n">
-        <v>2920.25185938498</v>
+        <v>2837.97252628281</v>
       </c>
       <c r="H125" t="n">
         <v>69000</v>
       </c>
       <c r="I125" t="n">
-        <v>14053.17284</v>
+        <v>11383.20848</v>
       </c>
       <c r="J125" t="n">
         <v>49.1525423728814</v>
@@ -10570,13 +10570,13 @@
         <v>520</v>
       </c>
       <c r="G126" t="n">
-        <v>2920.25185938498</v>
+        <v>2837.97252628281</v>
       </c>
       <c r="H126" t="n">
         <v>69000</v>
       </c>
       <c r="I126" t="n">
-        <v>14053.17284</v>
+        <v>11383.20848</v>
       </c>
       <c r="J126" t="n">
         <v>49.1525423728814</v>
@@ -11684,10 +11684,10 @@
         <v>510</v>
       </c>
       <c r="G140" t="n">
-        <v>1398.13321531718</v>
+        <v>1315.85388221501</v>
       </c>
       <c r="H140" t="n">
-        <v>17614.8597037136</v>
+        <v>12760.3790506856</v>
       </c>
       <c r="I140" t="n">
         <v>5165</v>
@@ -11769,10 +11769,10 @@
         <v>510</v>
       </c>
       <c r="G141" t="n">
-        <v>1398.13321531718</v>
+        <v>1315.85388221501</v>
       </c>
       <c r="H141" t="n">
-        <v>17614.8597037136</v>
+        <v>12760.3790506856</v>
       </c>
       <c r="I141" t="n">
         <v>5165</v>
@@ -11854,10 +11854,10 @@
         <v>510</v>
       </c>
       <c r="G142" t="n">
-        <v>1398.13321531718</v>
+        <v>1315.85388221501</v>
       </c>
       <c r="H142" t="n">
-        <v>17614.8597037136</v>
+        <v>12760.3790506856</v>
       </c>
       <c r="I142" t="n">
         <v>5165</v>
@@ -11939,10 +11939,10 @@
         <v>510</v>
       </c>
       <c r="G143" t="n">
-        <v>1398.13321531718</v>
+        <v>1315.85388221501</v>
       </c>
       <c r="H143" t="n">
-        <v>17614.8597037136</v>
+        <v>12760.3790506856</v>
       </c>
       <c r="I143" t="n">
         <v>5165</v>
@@ -12972,10 +12972,10 @@
         <v>470</v>
       </c>
       <c r="G156" t="n">
-        <v>1238.27344316748</v>
+        <v>1154.57550087389</v>
       </c>
       <c r="H156" t="n">
-        <v>17614.8597037136</v>
+        <v>12760.3790506856</v>
       </c>
       <c r="I156" t="n">
         <v>3420</v>
@@ -13057,10 +13057,10 @@
         <v>470</v>
       </c>
       <c r="G157" t="n">
-        <v>1238.27344316748</v>
+        <v>1154.57550087389</v>
       </c>
       <c r="H157" t="n">
-        <v>17614.8597037136</v>
+        <v>12760.3790506856</v>
       </c>
       <c r="I157" t="n">
         <v>3420</v>
@@ -13142,10 +13142,10 @@
         <v>470</v>
       </c>
       <c r="G158" t="n">
-        <v>1238.27344316748</v>
+        <v>1154.57550087389</v>
       </c>
       <c r="H158" t="n">
-        <v>17614.8597037136</v>
+        <v>12760.3790506856</v>
       </c>
       <c r="I158" t="n">
         <v>3420</v>
@@ -13227,10 +13227,10 @@
         <v>470</v>
       </c>
       <c r="G159" t="n">
-        <v>1238.27344316748</v>
+        <v>1154.57550087389</v>
       </c>
       <c r="H159" t="n">
-        <v>17614.8597037136</v>
+        <v>12760.3790506856</v>
       </c>
       <c r="I159" t="n">
         <v>3420</v>

--- a/state_results/Rivers/RangitawaStreamatusHalcombeoxpond_eca35b02db.xlsx
+++ b/state_results/Rivers/RangitawaStreamatusHalcombeoxpond_eca35b02db.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="69">
   <si>
     <t>site name</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -575,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U185"/>
+  <dimension ref="A1:U201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -660,7 +663,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>1.3</v>
@@ -675,7 +678,7 @@
         <v>3.05</v>
       </c>
       <c r="L2">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="M2">
         <v>2.403</v>
@@ -690,19 +693,19 @@
         <v>5554501</v>
       </c>
       <c r="Q2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -719,7 +722,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <v>0.027</v>
@@ -734,7 +737,7 @@
         <v>0.09275</v>
       </c>
       <c r="L3">
-        <v>0.0245</v>
+        <v>0.023</v>
       </c>
       <c r="M3">
         <v>0.06988</v>
@@ -749,19 +752,19 @@
         <v>5554501</v>
       </c>
       <c r="Q3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -778,7 +781,7 @@
         <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F4">
         <v>0.027</v>
@@ -793,7 +796,7 @@
         <v>0.09275</v>
       </c>
       <c r="L4">
-        <v>0.0245</v>
+        <v>0.023</v>
       </c>
       <c r="M4">
         <v>0.06988</v>
@@ -808,19 +811,19 @@
         <v>5554501</v>
       </c>
       <c r="Q4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -837,7 +840,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F5">
         <v>560</v>
@@ -858,7 +861,7 @@
         <v>71.1864406779661</v>
       </c>
       <c r="L5">
-        <v>320.5</v>
+        <v>375.05</v>
       </c>
       <c r="M5">
         <v>8712.02</v>
@@ -873,19 +876,19 @@
         <v>5554501</v>
       </c>
       <c r="Q5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -902,7 +905,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F6">
         <v>560</v>
@@ -923,7 +926,7 @@
         <v>71.1864406779661</v>
       </c>
       <c r="L6">
-        <v>320.5</v>
+        <v>375.05</v>
       </c>
       <c r="M6">
         <v>8712.02</v>
@@ -938,19 +941,19 @@
         <v>5554501</v>
       </c>
       <c r="Q6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -967,7 +970,7 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F7">
         <v>560</v>
@@ -988,7 +991,7 @@
         <v>71.1864406779661</v>
       </c>
       <c r="L7">
-        <v>320.5</v>
+        <v>375.05</v>
       </c>
       <c r="M7">
         <v>8712.02</v>
@@ -1003,19 +1006,19 @@
         <v>5554501</v>
       </c>
       <c r="Q7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1032,7 +1035,7 @@
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8">
         <v>560</v>
@@ -1053,7 +1056,7 @@
         <v>71.1864406779661</v>
       </c>
       <c r="L8">
-        <v>320.5</v>
+        <v>375.05</v>
       </c>
       <c r="M8">
         <v>8712.02</v>
@@ -1068,19 +1071,19 @@
         <v>5554501</v>
       </c>
       <c r="Q8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1097,13 +1100,13 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9">
         <v>0.01426</v>
       </c>
       <c r="G9">
-        <v>0.0325594704937632</v>
+        <v>0.0325595900162535</v>
       </c>
       <c r="H9">
         <v>0.511522717225151</v>
@@ -1127,19 +1130,19 @@
         <v>5554501</v>
       </c>
       <c r="Q9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1156,13 +1159,13 @@
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10">
         <v>0.01426</v>
       </c>
       <c r="G10">
-        <v>0.0325594704937632</v>
+        <v>0.0325595900162535</v>
       </c>
       <c r="H10">
         <v>0.511522717225151</v>
@@ -1186,19 +1189,19 @@
         <v>5554501</v>
       </c>
       <c r="Q10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1215,13 +1218,13 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11">
         <v>0.347</v>
       </c>
       <c r="G11">
-        <v>1.23401713757934</v>
+        <v>1.23400481099177</v>
       </c>
       <c r="H11">
         <v>9.5076</v>
@@ -1230,7 +1233,7 @@
         <v>8.42868</v>
       </c>
       <c r="L11">
-        <v>0.015</v>
+        <v>0.0215</v>
       </c>
       <c r="M11">
         <v>1.56012</v>
@@ -1245,19 +1248,19 @@
         <v>5554501</v>
       </c>
       <c r="Q11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1274,13 +1277,13 @@
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F12">
         <v>0.347</v>
       </c>
       <c r="G12">
-        <v>1.23401713757934</v>
+        <v>1.23400481099177</v>
       </c>
       <c r="H12">
         <v>9.5076</v>
@@ -1289,7 +1292,7 @@
         <v>8.42868</v>
       </c>
       <c r="L12">
-        <v>0.015</v>
+        <v>0.0215</v>
       </c>
       <c r="M12">
         <v>1.56012</v>
@@ -1304,19 +1307,19 @@
         <v>5554501</v>
       </c>
       <c r="Q12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1330,7 +1333,7 @@
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F13">
         <v>0.348</v>
@@ -1345,7 +1348,7 @@
         <v>6.9874</v>
       </c>
       <c r="L13">
-        <v>0.033</v>
+        <v>0.0385</v>
       </c>
       <c r="M13">
         <v>1.612</v>
@@ -1360,19 +1363,19 @@
         <v>5554501</v>
       </c>
       <c r="Q13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1386,7 +1389,7 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14">
         <v>0.348</v>
@@ -1401,7 +1404,7 @@
         <v>6.9874</v>
       </c>
       <c r="L14">
-        <v>0.033</v>
+        <v>0.0385</v>
       </c>
       <c r="M14">
         <v>1.612</v>
@@ -1416,19 +1419,19 @@
         <v>5554501</v>
       </c>
       <c r="Q14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1442,7 +1445,7 @@
         <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15">
         <v>1.2</v>
@@ -1457,7 +1460,7 @@
         <v>8.685</v>
       </c>
       <c r="L15">
-        <v>0.465</v>
+        <v>0.47</v>
       </c>
       <c r="M15">
         <v>3.1363</v>
@@ -1472,19 +1475,19 @@
         <v>5554501</v>
       </c>
       <c r="Q15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1498,7 +1501,7 @@
         <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F16">
         <v>1.2</v>
@@ -1513,7 +1516,7 @@
         <v>8.685</v>
       </c>
       <c r="L16">
-        <v>0.465</v>
+        <v>0.47</v>
       </c>
       <c r="M16">
         <v>3.1363</v>
@@ -1528,19 +1531,19 @@
         <v>5554501</v>
       </c>
       <c r="Q16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1554,7 +1557,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17">
         <v>0.089</v>
@@ -1569,7 +1572,7 @@
         <v>0.3955</v>
       </c>
       <c r="L17">
-        <v>0.0575</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="M17">
         <v>0.20235</v>
@@ -1584,19 +1587,19 @@
         <v>5554501</v>
       </c>
       <c r="Q17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1610,7 +1613,7 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F18">
         <v>0.089</v>
@@ -1625,7 +1628,7 @@
         <v>0.3955</v>
       </c>
       <c r="L18">
-        <v>0.0575</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="M18">
         <v>0.20235</v>
@@ -1640,19 +1643,19 @@
         <v>5554501</v>
       </c>
       <c r="Q18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1669,28 +1672,28 @@
         <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F19">
         <v>0.88</v>
       </c>
       <c r="G19">
-        <v>1.22813451704654</v>
+        <v>1.19359778327677</v>
       </c>
       <c r="H19">
-        <v>3.44803551139623</v>
+        <v>3.4</v>
       </c>
       <c r="I19">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L19">
         <v>0.6</v>
       </c>
       <c r="M19">
-        <v>2.51</v>
+        <v>2.42716</v>
       </c>
       <c r="N19">
-        <v>3.13</v>
+        <v>2.65</v>
       </c>
       <c r="O19">
         <v>1811782</v>
@@ -1699,19 +1702,19 @@
         <v>5554501</v>
       </c>
       <c r="Q19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1728,7 +1731,7 @@
         <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F20">
         <v>0.027</v>
@@ -1758,19 +1761,19 @@
         <v>5554501</v>
       </c>
       <c r="Q20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1787,7 +1790,7 @@
         <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21">
         <v>0.027</v>
@@ -1817,19 +1820,19 @@
         <v>5554501</v>
       </c>
       <c r="Q21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1846,13 +1849,13 @@
         <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22">
         <v>689</v>
       </c>
       <c r="G22">
-        <v>3694.52542372881</v>
+        <v>3694.52372881356</v>
       </c>
       <c r="H22">
         <v>54750</v>
@@ -1867,13 +1870,13 @@
         <v>79.6610169491525</v>
       </c>
       <c r="L22">
-        <v>480.5</v>
+        <v>667.5</v>
       </c>
       <c r="M22">
         <v>8694</v>
       </c>
       <c r="N22">
-        <v>11733.16</v>
+        <v>11733.138</v>
       </c>
       <c r="O22">
         <v>1811782</v>
@@ -1882,19 +1885,19 @@
         <v>5554501</v>
       </c>
       <c r="Q22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1911,13 +1914,13 @@
         <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F23">
         <v>689</v>
       </c>
       <c r="G23">
-        <v>3694.52542372881</v>
+        <v>3694.52372881356</v>
       </c>
       <c r="H23">
         <v>54750</v>
@@ -1932,13 +1935,13 @@
         <v>79.6610169491525</v>
       </c>
       <c r="L23">
-        <v>480.5</v>
+        <v>667.5</v>
       </c>
       <c r="M23">
         <v>8694</v>
       </c>
       <c r="N23">
-        <v>11733.16</v>
+        <v>11733.138</v>
       </c>
       <c r="O23">
         <v>1811782</v>
@@ -1947,19 +1950,19 @@
         <v>5554501</v>
       </c>
       <c r="Q23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1976,13 +1979,13 @@
         <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F24">
         <v>689</v>
       </c>
       <c r="G24">
-        <v>3694.52542372881</v>
+        <v>3694.52372881356</v>
       </c>
       <c r="H24">
         <v>54750</v>
@@ -1997,13 +2000,13 @@
         <v>79.6610169491525</v>
       </c>
       <c r="L24">
-        <v>480.5</v>
+        <v>667.5</v>
       </c>
       <c r="M24">
         <v>8694</v>
       </c>
       <c r="N24">
-        <v>11733.16</v>
+        <v>11733.138</v>
       </c>
       <c r="O24">
         <v>1811782</v>
@@ -2012,19 +2015,19 @@
         <v>5554501</v>
       </c>
       <c r="Q24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2041,13 +2044,13 @@
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25">
         <v>689</v>
       </c>
       <c r="G25">
-        <v>3694.52542372881</v>
+        <v>3694.52372881356</v>
       </c>
       <c r="H25">
         <v>54750</v>
@@ -2062,13 +2065,13 @@
         <v>79.6610169491525</v>
       </c>
       <c r="L25">
-        <v>480.5</v>
+        <v>667.5</v>
       </c>
       <c r="M25">
         <v>8694</v>
       </c>
       <c r="N25">
-        <v>11733.16</v>
+        <v>11733.138</v>
       </c>
       <c r="O25">
         <v>1811782</v>
@@ -2077,19 +2080,19 @@
         <v>5554501</v>
       </c>
       <c r="Q25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2106,13 +2109,13 @@
         <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26">
         <v>0.01196</v>
       </c>
       <c r="G26">
-        <v>0.0290598592681904</v>
+        <v>0.0290599808514133</v>
       </c>
       <c r="H26">
         <v>0.511522717225151</v>
@@ -2121,7 +2124,7 @@
         <v>0.11064</v>
       </c>
       <c r="L26">
-        <v>0.00839</v>
+        <v>0.00578</v>
       </c>
       <c r="M26">
         <v>0.03317</v>
@@ -2136,19 +2139,19 @@
         <v>5554501</v>
       </c>
       <c r="Q26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2165,13 +2168,13 @@
         <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27">
         <v>0.01196</v>
       </c>
       <c r="G27">
-        <v>0.0290598592681904</v>
+        <v>0.0290599808514133</v>
       </c>
       <c r="H27">
         <v>0.511522717225151</v>
@@ -2180,7 +2183,7 @@
         <v>0.11064</v>
       </c>
       <c r="L27">
-        <v>0.00839</v>
+        <v>0.00578</v>
       </c>
       <c r="M27">
         <v>0.03317</v>
@@ -2195,19 +2198,19 @@
         <v>5554501</v>
       </c>
       <c r="Q27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2224,13 +2227,13 @@
         <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F28">
         <v>0.25</v>
       </c>
       <c r="G28">
-        <v>0.8812244023964</v>
+        <v>0.881214165060963</v>
       </c>
       <c r="H28">
         <v>9.5076</v>
@@ -2239,7 +2242,7 @@
         <v>4.734</v>
       </c>
       <c r="L28">
-        <v>0.00641</v>
+        <v>0.015</v>
       </c>
       <c r="M28">
         <v>1.1423</v>
@@ -2254,19 +2257,19 @@
         <v>5554501</v>
       </c>
       <c r="Q28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2283,13 +2286,13 @@
         <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29">
         <v>0.25</v>
       </c>
       <c r="G29">
-        <v>0.8812244023964</v>
+        <v>0.881214165060963</v>
       </c>
       <c r="H29">
         <v>9.5076</v>
@@ -2298,7 +2301,7 @@
         <v>4.734</v>
       </c>
       <c r="L29">
-        <v>0.00641</v>
+        <v>0.015</v>
       </c>
       <c r="M29">
         <v>1.1423</v>
@@ -2313,19 +2316,19 @@
         <v>5554501</v>
       </c>
       <c r="Q29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2339,7 +2342,7 @@
         <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F30">
         <v>0.3215</v>
@@ -2354,7 +2357,7 @@
         <v>4.87735</v>
       </c>
       <c r="L30">
-        <v>0.036</v>
+        <v>0.0438</v>
       </c>
       <c r="M30">
         <v>1.28539</v>
@@ -2369,19 +2372,19 @@
         <v>5554501</v>
       </c>
       <c r="Q30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2395,7 +2398,7 @@
         <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F31">
         <v>0.3215</v>
@@ -2410,7 +2413,7 @@
         <v>4.87735</v>
       </c>
       <c r="L31">
-        <v>0.036</v>
+        <v>0.0438</v>
       </c>
       <c r="M31">
         <v>1.28539</v>
@@ -2425,19 +2428,19 @@
         <v>5554501</v>
       </c>
       <c r="Q31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2451,7 +2454,7 @@
         <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F32">
         <v>1.191</v>
@@ -2466,7 +2469,7 @@
         <v>6.57</v>
       </c>
       <c r="L32">
-        <v>0.451</v>
+        <v>0.465</v>
       </c>
       <c r="M32">
         <v>2.6423</v>
@@ -2481,19 +2484,19 @@
         <v>5554501</v>
       </c>
       <c r="Q32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2507,7 +2510,7 @@
         <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F33">
         <v>1.191</v>
@@ -2522,7 +2525,7 @@
         <v>6.57</v>
       </c>
       <c r="L33">
-        <v>0.451</v>
+        <v>0.465</v>
       </c>
       <c r="M33">
         <v>2.6423</v>
@@ -2537,19 +2540,19 @@
         <v>5554501</v>
       </c>
       <c r="Q33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2563,7 +2566,7 @@
         <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F34">
         <v>0.089</v>
@@ -2578,7 +2581,7 @@
         <v>0.2461</v>
       </c>
       <c r="L34">
-        <v>0.065</v>
+        <v>0.076</v>
       </c>
       <c r="M34">
         <v>0.16234</v>
@@ -2593,19 +2596,19 @@
         <v>5554501</v>
       </c>
       <c r="Q34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2619,7 +2622,7 @@
         <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F35">
         <v>0.089</v>
@@ -2634,7 +2637,7 @@
         <v>0.2461</v>
       </c>
       <c r="L35">
-        <v>0.065</v>
+        <v>0.076</v>
       </c>
       <c r="M35">
         <v>0.16234</v>
@@ -2649,19 +2652,19 @@
         <v>5554501</v>
       </c>
       <c r="Q35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2678,7 +2681,7 @@
         <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F36">
         <v>0.026</v>
@@ -2708,19 +2711,19 @@
         <v>5554501</v>
       </c>
       <c r="Q36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2737,7 +2740,7 @@
         <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F37">
         <v>0.026</v>
@@ -2767,19 +2770,19 @@
         <v>5554501</v>
       </c>
       <c r="Q37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2796,7 +2799,7 @@
         <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F38">
         <v>714.5</v>
@@ -2817,7 +2820,7 @@
         <v>80</v>
       </c>
       <c r="L38">
-        <v>492</v>
+        <v>667.5</v>
       </c>
       <c r="M38">
         <v>6396.8</v>
@@ -2832,19 +2835,19 @@
         <v>5554501</v>
       </c>
       <c r="Q38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2861,7 +2864,7 @@
         <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F39">
         <v>714.5</v>
@@ -2882,7 +2885,7 @@
         <v>80</v>
       </c>
       <c r="L39">
-        <v>492</v>
+        <v>667.5</v>
       </c>
       <c r="M39">
         <v>6396.8</v>
@@ -2897,19 +2900,19 @@
         <v>5554501</v>
       </c>
       <c r="Q39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2926,7 +2929,7 @@
         <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F40">
         <v>714.5</v>
@@ -2947,7 +2950,7 @@
         <v>80</v>
       </c>
       <c r="L40">
-        <v>492</v>
+        <v>667.5</v>
       </c>
       <c r="M40">
         <v>6396.8</v>
@@ -2962,19 +2965,19 @@
         <v>5554501</v>
       </c>
       <c r="Q40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2991,7 +2994,7 @@
         <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F41">
         <v>714.5</v>
@@ -3012,7 +3015,7 @@
         <v>80</v>
       </c>
       <c r="L41">
-        <v>492</v>
+        <v>667.5</v>
       </c>
       <c r="M41">
         <v>6396.8</v>
@@ -3027,19 +3030,19 @@
         <v>5554501</v>
       </c>
       <c r="Q41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3056,13 +3059,13 @@
         <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F42">
         <v>0.00603</v>
       </c>
       <c r="G42">
-        <v>0.0276326247594667</v>
+        <v>0.0276340715258461</v>
       </c>
       <c r="H42">
         <v>0.511522717225151</v>
@@ -3071,7 +3074,7 @@
         <v>0.11013</v>
       </c>
       <c r="L42">
-        <v>0.00376</v>
+        <v>0.00379</v>
       </c>
       <c r="M42">
         <v>0.03258</v>
@@ -3086,19 +3089,19 @@
         <v>5554501</v>
       </c>
       <c r="Q42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3115,13 +3118,13 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F43">
         <v>0.00603</v>
       </c>
       <c r="G43">
-        <v>0.0276326247594667</v>
+        <v>0.0276340715258461</v>
       </c>
       <c r="H43">
         <v>0.511522717225151</v>
@@ -3130,7 +3133,7 @@
         <v>0.11013</v>
       </c>
       <c r="L43">
-        <v>0.00376</v>
+        <v>0.00379</v>
       </c>
       <c r="M43">
         <v>0.03258</v>
@@ -3145,19 +3148,19 @@
         <v>5554501</v>
       </c>
       <c r="Q43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3174,13 +3177,13 @@
         <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F44">
         <v>0.2</v>
       </c>
       <c r="G44">
-        <v>0.937244025990381</v>
+        <v>0.937239568952808</v>
       </c>
       <c r="H44">
         <v>9.5076</v>
@@ -3189,7 +3192,7 @@
         <v>4.72</v>
       </c>
       <c r="L44">
-        <v>0.00175</v>
+        <v>0.0122</v>
       </c>
       <c r="M44">
         <v>1.529</v>
@@ -3204,19 +3207,19 @@
         <v>5554501</v>
       </c>
       <c r="Q44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3233,13 +3236,13 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F45">
         <v>0.2</v>
       </c>
       <c r="G45">
-        <v>0.937244025990381</v>
+        <v>0.937239568952808</v>
       </c>
       <c r="H45">
         <v>9.5076</v>
@@ -3248,7 +3251,7 @@
         <v>4.72</v>
       </c>
       <c r="L45">
-        <v>0.00175</v>
+        <v>0.0122</v>
       </c>
       <c r="M45">
         <v>1.529</v>
@@ -3263,19 +3266,19 @@
         <v>5554501</v>
       </c>
       <c r="Q45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3289,13 +3292,13 @@
         <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F46">
         <v>0.261</v>
       </c>
       <c r="G46">
-        <v>0.985940470738027</v>
+        <v>0.985945048572763</v>
       </c>
       <c r="H46">
         <v>9.5679</v>
@@ -3304,7 +3307,7 @@
         <v>4.8585</v>
       </c>
       <c r="L46">
-        <v>0.025</v>
+        <v>0.033</v>
       </c>
       <c r="M46">
         <v>1.574</v>
@@ -3319,19 +3322,19 @@
         <v>5554501</v>
       </c>
       <c r="Q46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3345,13 +3348,13 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F47">
         <v>0.261</v>
       </c>
       <c r="G47">
-        <v>0.985940470738027</v>
+        <v>0.985945048572763</v>
       </c>
       <c r="H47">
         <v>9.5679</v>
@@ -3360,7 +3363,7 @@
         <v>4.8585</v>
       </c>
       <c r="L47">
-        <v>0.025</v>
+        <v>0.033</v>
       </c>
       <c r="M47">
         <v>1.574</v>
@@ -3375,19 +3378,19 @@
         <v>5554501</v>
       </c>
       <c r="Q47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3401,7 +3404,7 @@
         <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F48">
         <v>1.1315</v>
@@ -3416,7 +3419,7 @@
         <v>6.5</v>
       </c>
       <c r="L48">
-        <v>0.451</v>
+        <v>0.495</v>
       </c>
       <c r="M48">
         <v>2.832</v>
@@ -3431,19 +3434,19 @@
         <v>5554501</v>
       </c>
       <c r="Q48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3457,7 +3460,7 @@
         <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F49">
         <v>1.1315</v>
@@ -3472,7 +3475,7 @@
         <v>6.5</v>
       </c>
       <c r="L49">
-        <v>0.451</v>
+        <v>0.495</v>
       </c>
       <c r="M49">
         <v>2.832</v>
@@ -3487,19 +3490,19 @@
         <v>5554501</v>
       </c>
       <c r="Q49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3513,7 +3516,7 @@
         <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F50">
         <v>0.0955</v>
@@ -3528,7 +3531,7 @@
         <v>0.4275</v>
       </c>
       <c r="L50">
-        <v>0.08500000000000001</v>
+        <v>0.0895</v>
       </c>
       <c r="M50">
         <v>0.1565</v>
@@ -3543,19 +3546,19 @@
         <v>5554501</v>
       </c>
       <c r="Q50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3569,7 +3572,7 @@
         <v>46</v>
       </c>
       <c r="E51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F51">
         <v>0.0955</v>
@@ -3584,7 +3587,7 @@
         <v>0.4275</v>
       </c>
       <c r="L51">
-        <v>0.08500000000000001</v>
+        <v>0.0895</v>
       </c>
       <c r="M51">
         <v>0.1565</v>
@@ -3599,19 +3602,19 @@
         <v>5554501</v>
       </c>
       <c r="Q51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3628,28 +3631,28 @@
         <v>47</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F52">
         <v>0.475</v>
       </c>
       <c r="G52">
-        <v>0.941901263132962</v>
+        <v>0.919536959150185</v>
       </c>
       <c r="H52">
-        <v>3.44803551139623</v>
+        <v>3.4</v>
       </c>
       <c r="I52">
-        <v>3.24</v>
+        <v>2.70586</v>
       </c>
       <c r="L52">
-        <v>0.385</v>
+        <v>0.3985</v>
       </c>
       <c r="M52">
         <v>1.92048</v>
       </c>
       <c r="N52">
-        <v>2.56845</v>
+        <v>2.567</v>
       </c>
       <c r="O52">
         <v>1811782</v>
@@ -3658,19 +3661,19 @@
         <v>5554501</v>
       </c>
       <c r="Q52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3687,7 +3690,7 @@
         <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F53">
         <v>0.025</v>
@@ -3717,19 +3720,19 @@
         <v>5554501</v>
       </c>
       <c r="Q53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3746,7 +3749,7 @@
         <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F54">
         <v>0.025</v>
@@ -3776,19 +3779,19 @@
         <v>5554501</v>
       </c>
       <c r="Q54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3805,7 +3808,7 @@
         <v>47</v>
       </c>
       <c r="E55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F55">
         <v>796</v>
@@ -3826,7 +3829,7 @@
         <v>86.6666666666667</v>
       </c>
       <c r="L55">
-        <v>492</v>
+        <v>667.5</v>
       </c>
       <c r="M55">
         <v>6756.8</v>
@@ -3841,19 +3844,19 @@
         <v>5554501</v>
       </c>
       <c r="Q55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3870,7 +3873,7 @@
         <v>47</v>
       </c>
       <c r="E56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F56">
         <v>796</v>
@@ -3891,7 +3894,7 @@
         <v>86.6666666666667</v>
       </c>
       <c r="L56">
-        <v>492</v>
+        <v>667.5</v>
       </c>
       <c r="M56">
         <v>6756.8</v>
@@ -3906,19 +3909,19 @@
         <v>5554501</v>
       </c>
       <c r="Q56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3935,7 +3938,7 @@
         <v>47</v>
       </c>
       <c r="E57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F57">
         <v>796</v>
@@ -3956,7 +3959,7 @@
         <v>86.6666666666667</v>
       </c>
       <c r="L57">
-        <v>492</v>
+        <v>667.5</v>
       </c>
       <c r="M57">
         <v>6756.8</v>
@@ -3971,19 +3974,19 @@
         <v>5554501</v>
       </c>
       <c r="Q57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -4000,7 +4003,7 @@
         <v>47</v>
       </c>
       <c r="E58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F58">
         <v>796</v>
@@ -4021,7 +4024,7 @@
         <v>86.6666666666667</v>
       </c>
       <c r="L58">
-        <v>492</v>
+        <v>667.5</v>
       </c>
       <c r="M58">
         <v>6756.8</v>
@@ -4036,19 +4039,19 @@
         <v>5554501</v>
       </c>
       <c r="Q58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4065,13 +4068,13 @@
         <v>47</v>
       </c>
       <c r="E59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F59">
         <v>0.00379</v>
       </c>
       <c r="G59">
-        <v>0.0243264296401488</v>
+        <v>0.0243331262260445</v>
       </c>
       <c r="H59">
         <v>0.511522717225151</v>
@@ -4080,7 +4083,7 @@
         <v>0.114</v>
       </c>
       <c r="L59">
-        <v>0.00169</v>
+        <v>0.00262</v>
       </c>
       <c r="M59">
         <v>0.02048</v>
@@ -4095,19 +4098,19 @@
         <v>5554501</v>
       </c>
       <c r="Q59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4124,13 +4127,13 @@
         <v>47</v>
       </c>
       <c r="E60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F60">
         <v>0.00379</v>
       </c>
       <c r="G60">
-        <v>0.0243264296401488</v>
+        <v>0.0243331262260445</v>
       </c>
       <c r="H60">
         <v>0.511522717225151</v>
@@ -4139,7 +4142,7 @@
         <v>0.114</v>
       </c>
       <c r="L60">
-        <v>0.00169</v>
+        <v>0.00262</v>
       </c>
       <c r="M60">
         <v>0.02048</v>
@@ -4154,19 +4157,19 @@
         <v>5554501</v>
       </c>
       <c r="Q60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4183,13 +4186,13 @@
         <v>47</v>
       </c>
       <c r="E61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F61">
         <v>0.11755</v>
       </c>
       <c r="G61">
-        <v>0.665403793143567</v>
+        <v>0.665385168627049</v>
       </c>
       <c r="H61">
         <v>9.5076</v>
@@ -4198,7 +4201,7 @@
         <v>2.61535</v>
       </c>
       <c r="L61">
-        <v>0.00095</v>
+        <v>0.00182</v>
       </c>
       <c r="M61">
         <v>1.127</v>
@@ -4213,19 +4216,19 @@
         <v>5554501</v>
       </c>
       <c r="Q61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4242,13 +4245,13 @@
         <v>47</v>
       </c>
       <c r="E62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F62">
         <v>0.11755</v>
       </c>
       <c r="G62">
-        <v>0.665403793143567</v>
+        <v>0.665385168627049</v>
       </c>
       <c r="H62">
         <v>9.5076</v>
@@ -4257,7 +4260,7 @@
         <v>2.61535</v>
       </c>
       <c r="L62">
-        <v>0.00095</v>
+        <v>0.00182</v>
       </c>
       <c r="M62">
         <v>1.127</v>
@@ -4272,19 +4275,19 @@
         <v>5554501</v>
       </c>
       <c r="Q62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4298,13 +4301,13 @@
         <v>47</v>
       </c>
       <c r="E63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F63">
         <v>0.12925</v>
       </c>
       <c r="G63">
-        <v>0.708247931289062</v>
+        <v>0.708286914484607</v>
       </c>
       <c r="H63">
         <v>9.5679</v>
@@ -4313,7 +4316,7 @@
         <v>2.6436</v>
       </c>
       <c r="L63">
-        <v>0.00455</v>
+        <v>0.0131</v>
       </c>
       <c r="M63">
         <v>1.2281</v>
@@ -4328,19 +4331,19 @@
         <v>5554501</v>
       </c>
       <c r="Q63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U63" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4354,13 +4357,13 @@
         <v>47</v>
       </c>
       <c r="E64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F64">
         <v>0.12925</v>
       </c>
       <c r="G64">
-        <v>0.708247931289062</v>
+        <v>0.708286914484607</v>
       </c>
       <c r="H64">
         <v>9.5679</v>
@@ -4369,7 +4372,7 @@
         <v>2.6436</v>
       </c>
       <c r="L64">
-        <v>0.00455</v>
+        <v>0.0131</v>
       </c>
       <c r="M64">
         <v>1.2281</v>
@@ -4384,19 +4387,19 @@
         <v>5554501</v>
       </c>
       <c r="Q64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4410,7 +4413,7 @@
         <v>47</v>
       </c>
       <c r="E65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F65">
         <v>0.8915</v>
@@ -4425,7 +4428,7 @@
         <v>4.4465</v>
       </c>
       <c r="L65">
-        <v>0.463</v>
+        <v>0.49</v>
       </c>
       <c r="M65">
         <v>2.823</v>
@@ -4440,19 +4443,19 @@
         <v>5554501</v>
       </c>
       <c r="Q65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U65" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4466,7 +4469,7 @@
         <v>47</v>
       </c>
       <c r="E66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F66">
         <v>0.8915</v>
@@ -4481,7 +4484,7 @@
         <v>4.4465</v>
       </c>
       <c r="L66">
-        <v>0.463</v>
+        <v>0.49</v>
       </c>
       <c r="M66">
         <v>2.823</v>
@@ -4496,19 +4499,19 @@
         <v>5554501</v>
       </c>
       <c r="Q66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4522,7 +4525,7 @@
         <v>47</v>
       </c>
       <c r="E67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F67">
         <v>0.0975</v>
@@ -4537,7 +4540,7 @@
         <v>0.699</v>
       </c>
       <c r="L67">
-        <v>0.0925</v>
+        <v>0.096</v>
       </c>
       <c r="M67">
         <v>0.1851</v>
@@ -4552,19 +4555,19 @@
         <v>5554501</v>
       </c>
       <c r="Q67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4578,7 +4581,7 @@
         <v>47</v>
       </c>
       <c r="E68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F68">
         <v>0.0975</v>
@@ -4593,7 +4596,7 @@
         <v>0.699</v>
       </c>
       <c r="L68">
-        <v>0.0925</v>
+        <v>0.096</v>
       </c>
       <c r="M68">
         <v>0.1851</v>
@@ -4608,19 +4611,19 @@
         <v>5554501</v>
       </c>
       <c r="Q68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4637,28 +4640,28 @@
         <v>48</v>
       </c>
       <c r="E69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F69">
         <v>0.44</v>
       </c>
       <c r="G69">
-        <v>0.790368728284343</v>
+        <v>0.769817746246116</v>
       </c>
       <c r="H69">
-        <v>3.44803551139623</v>
+        <v>3.4</v>
       </c>
       <c r="I69">
-        <v>3.06981</v>
+        <v>2.62019</v>
       </c>
       <c r="L69">
-        <v>0.385</v>
+        <v>0.377</v>
       </c>
       <c r="M69">
         <v>1.3294</v>
       </c>
       <c r="N69">
-        <v>2.24657</v>
+        <v>2.22244</v>
       </c>
       <c r="O69">
         <v>1811782</v>
@@ -4667,19 +4670,19 @@
         <v>5554501</v>
       </c>
       <c r="Q69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4696,7 +4699,7 @@
         <v>48</v>
       </c>
       <c r="E70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F70">
         <v>0.022</v>
@@ -4711,7 +4714,7 @@
         <v>0.1265</v>
       </c>
       <c r="L70">
-        <v>0.0265</v>
+        <v>0.027</v>
       </c>
       <c r="M70">
         <v>0.0343</v>
@@ -4726,19 +4729,19 @@
         <v>5554501</v>
       </c>
       <c r="Q70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U70" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4755,7 +4758,7 @@
         <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F71">
         <v>0.022</v>
@@ -4770,7 +4773,7 @@
         <v>0.1265</v>
       </c>
       <c r="L71">
-        <v>0.0265</v>
+        <v>0.027</v>
       </c>
       <c r="M71">
         <v>0.0343</v>
@@ -4785,19 +4788,19 @@
         <v>5554501</v>
       </c>
       <c r="Q71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S71" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T71" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U71" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4814,7 +4817,7 @@
         <v>48</v>
       </c>
       <c r="E72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F72">
         <v>648</v>
@@ -4835,7 +4838,7 @@
         <v>88.3333333333333</v>
       </c>
       <c r="L72">
-        <v>480</v>
+        <v>618</v>
       </c>
       <c r="M72">
         <v>5817.8</v>
@@ -4850,19 +4853,19 @@
         <v>5554501</v>
       </c>
       <c r="Q72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T72" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U72" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4879,7 +4882,7 @@
         <v>48</v>
       </c>
       <c r="E73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F73">
         <v>648</v>
@@ -4900,7 +4903,7 @@
         <v>88.3333333333333</v>
       </c>
       <c r="L73">
-        <v>480</v>
+        <v>618</v>
       </c>
       <c r="M73">
         <v>5817.8</v>
@@ -4915,19 +4918,19 @@
         <v>5554501</v>
       </c>
       <c r="Q73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U73" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4944,7 +4947,7 @@
         <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F74">
         <v>648</v>
@@ -4965,7 +4968,7 @@
         <v>88.3333333333333</v>
       </c>
       <c r="L74">
-        <v>480</v>
+        <v>618</v>
       </c>
       <c r="M74">
         <v>5817.8</v>
@@ -4980,19 +4983,19 @@
         <v>5554501</v>
       </c>
       <c r="Q74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T74" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U74" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -5009,7 +5012,7 @@
         <v>48</v>
       </c>
       <c r="E75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F75">
         <v>648</v>
@@ -5030,7 +5033,7 @@
         <v>88.3333333333333</v>
       </c>
       <c r="L75">
-        <v>480</v>
+        <v>618</v>
       </c>
       <c r="M75">
         <v>5817.8</v>
@@ -5045,19 +5048,19 @@
         <v>5554501</v>
       </c>
       <c r="Q75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R75" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S75" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T75" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U75" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5074,13 +5077,13 @@
         <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F76">
-        <v>0.00365</v>
+        <v>0.00374</v>
       </c>
       <c r="G76">
-        <v>0.0100275605757504</v>
+        <v>0.0100391451725097</v>
       </c>
       <c r="H76">
         <v>0.113106723204263</v>
@@ -5089,7 +5092,7 @@
         <v>0.04226</v>
       </c>
       <c r="L76">
-        <v>0.00169</v>
+        <v>0.00251</v>
       </c>
       <c r="M76">
         <v>0.01433</v>
@@ -5104,19 +5107,19 @@
         <v>5554501</v>
       </c>
       <c r="Q76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S76" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T76" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U76" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5133,13 +5136,13 @@
         <v>48</v>
       </c>
       <c r="E77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F77">
-        <v>0.00365</v>
+        <v>0.00374</v>
       </c>
       <c r="G77">
-        <v>0.0100275605757504</v>
+        <v>0.0100391451725097</v>
       </c>
       <c r="H77">
         <v>0.113106723204263</v>
@@ -5148,7 +5151,7 @@
         <v>0.04226</v>
       </c>
       <c r="L77">
-        <v>0.00169</v>
+        <v>0.00251</v>
       </c>
       <c r="M77">
         <v>0.01433</v>
@@ -5163,19 +5166,19 @@
         <v>5554501</v>
       </c>
       <c r="Q77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S77" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T77" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U77" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5192,13 +5195,13 @@
         <v>48</v>
       </c>
       <c r="E78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F78">
         <v>0.11135</v>
       </c>
       <c r="G78">
-        <v>0.736899208492158</v>
+        <v>0.7368767508965099</v>
       </c>
       <c r="H78">
         <v>9.5076</v>
@@ -5207,7 +5210,7 @@
         <v>2.85295</v>
       </c>
       <c r="L78">
-        <v>0.00105</v>
+        <v>0.00206</v>
       </c>
       <c r="M78">
         <v>1.621</v>
@@ -5222,19 +5225,19 @@
         <v>5554501</v>
       </c>
       <c r="Q78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T78" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U78" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5251,13 +5254,13 @@
         <v>48</v>
       </c>
       <c r="E79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F79">
         <v>0.11135</v>
       </c>
       <c r="G79">
-        <v>0.736899208492158</v>
+        <v>0.7368767508965099</v>
       </c>
       <c r="H79">
         <v>9.5076</v>
@@ -5266,7 +5269,7 @@
         <v>2.85295</v>
       </c>
       <c r="L79">
-        <v>0.00105</v>
+        <v>0.00206</v>
       </c>
       <c r="M79">
         <v>1.621</v>
@@ -5281,19 +5284,19 @@
         <v>5554501</v>
       </c>
       <c r="Q79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R79" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T79" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U79" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5307,13 +5310,13 @@
         <v>48</v>
       </c>
       <c r="E80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F80">
         <v>0.12075</v>
       </c>
       <c r="G80">
-        <v>0.7667468868985861</v>
+        <v>0.766798998637558</v>
       </c>
       <c r="H80">
         <v>9.5679</v>
@@ -5322,7 +5325,7 @@
         <v>2.9435</v>
       </c>
       <c r="L80">
-        <v>0.00455</v>
+        <v>0.00911</v>
       </c>
       <c r="M80">
         <v>1.768</v>
@@ -5337,19 +5340,19 @@
         <v>5554501</v>
       </c>
       <c r="Q80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S80" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T80" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U80" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5363,13 +5366,13 @@
         <v>48</v>
       </c>
       <c r="E81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F81">
         <v>0.12075</v>
       </c>
       <c r="G81">
-        <v>0.7667468868985861</v>
+        <v>0.766798998637558</v>
       </c>
       <c r="H81">
         <v>9.5679</v>
@@ -5378,7 +5381,7 @@
         <v>2.9435</v>
       </c>
       <c r="L81">
-        <v>0.00455</v>
+        <v>0.00911</v>
       </c>
       <c r="M81">
         <v>1.768</v>
@@ -5393,19 +5396,19 @@
         <v>5554501</v>
       </c>
       <c r="Q81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S81" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T81" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U81" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5419,7 +5422,7 @@
         <v>48</v>
       </c>
       <c r="E82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F82">
         <v>0.8625</v>
@@ -5434,7 +5437,7 @@
         <v>4.7765</v>
       </c>
       <c r="L82">
-        <v>0.465</v>
+        <v>0.49</v>
       </c>
       <c r="M82">
         <v>2.979</v>
@@ -5449,19 +5452,19 @@
         <v>5554501</v>
       </c>
       <c r="Q82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T82" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U82" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5475,7 +5478,7 @@
         <v>48</v>
       </c>
       <c r="E83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F83">
         <v>0.8625</v>
@@ -5490,7 +5493,7 @@
         <v>4.7765</v>
       </c>
       <c r="L83">
-        <v>0.465</v>
+        <v>0.49</v>
       </c>
       <c r="M83">
         <v>2.979</v>
@@ -5505,19 +5508,19 @@
         <v>5554501</v>
       </c>
       <c r="Q83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T83" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U83" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5531,7 +5534,7 @@
         <v>48</v>
       </c>
       <c r="E84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F84">
         <v>0.096</v>
@@ -5546,7 +5549,7 @@
         <v>0.465</v>
       </c>
       <c r="L84">
-        <v>0.092</v>
+        <v>0.0955</v>
       </c>
       <c r="M84">
         <v>0.167</v>
@@ -5561,19 +5564,19 @@
         <v>5554501</v>
       </c>
       <c r="Q84" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R84" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T84" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U84" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5587,7 +5590,7 @@
         <v>48</v>
       </c>
       <c r="E85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F85">
         <v>0.096</v>
@@ -5602,7 +5605,7 @@
         <v>0.465</v>
       </c>
       <c r="L85">
-        <v>0.092</v>
+        <v>0.0955</v>
       </c>
       <c r="M85">
         <v>0.167</v>
@@ -5617,19 +5620,19 @@
         <v>5554501</v>
       </c>
       <c r="Q85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U85" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5646,28 +5649,28 @@
         <v>49</v>
       </c>
       <c r="E86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F86">
         <v>0.405</v>
       </c>
       <c r="G86">
-        <v>0.6328248320600171</v>
+        <v>0.614720395502531</v>
       </c>
       <c r="H86">
-        <v>3.44803551139623</v>
+        <v>3.4</v>
       </c>
       <c r="I86">
-        <v>2.83396</v>
+        <v>2.54009</v>
       </c>
       <c r="L86">
-        <v>0.33</v>
+        <v>0.377</v>
       </c>
       <c r="M86">
         <v>0.9536</v>
       </c>
       <c r="N86">
-        <v>1.58233</v>
+        <v>1.57607</v>
       </c>
       <c r="O86">
         <v>1811782</v>
@@ -5676,19 +5679,19 @@
         <v>5554501</v>
       </c>
       <c r="Q86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T86" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U86" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -5705,7 +5708,7 @@
         <v>49</v>
       </c>
       <c r="E87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F87">
         <v>0.022</v>
@@ -5720,7 +5723,7 @@
         <v>0.1785</v>
       </c>
       <c r="L87">
-        <v>0.0265</v>
+        <v>0.027</v>
       </c>
       <c r="M87">
         <v>0.0353</v>
@@ -5735,19 +5738,19 @@
         <v>5554501</v>
       </c>
       <c r="Q87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -5764,7 +5767,7 @@
         <v>49</v>
       </c>
       <c r="E88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F88">
         <v>0.022</v>
@@ -5779,7 +5782,7 @@
         <v>0.1785</v>
       </c>
       <c r="L88">
-        <v>0.0265</v>
+        <v>0.027</v>
       </c>
       <c r="M88">
         <v>0.0353</v>
@@ -5794,19 +5797,19 @@
         <v>5554501</v>
       </c>
       <c r="Q88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S88" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U88" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -5823,19 +5826,19 @@
         <v>49</v>
       </c>
       <c r="E89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F89">
         <v>700</v>
       </c>
       <c r="G89">
-        <v>5076.65885146894</v>
+        <v>4832.09908970071</v>
       </c>
       <c r="H89">
         <v>82000</v>
       </c>
       <c r="I89">
-        <v>22349.26554</v>
+        <v>19500</v>
       </c>
       <c r="J89">
         <v>60</v>
@@ -5844,13 +5847,13 @@
         <v>90</v>
       </c>
       <c r="L89">
-        <v>522</v>
+        <v>827</v>
       </c>
       <c r="M89">
         <v>4426.2</v>
       </c>
       <c r="N89">
-        <v>16861</v>
+        <v>11316.48361</v>
       </c>
       <c r="O89">
         <v>1811782</v>
@@ -5859,19 +5862,19 @@
         <v>5554501</v>
       </c>
       <c r="Q89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S89" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T89" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U89" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5888,19 +5891,19 @@
         <v>49</v>
       </c>
       <c r="E90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F90">
         <v>700</v>
       </c>
       <c r="G90">
-        <v>5076.65885146894</v>
+        <v>4832.09908970071</v>
       </c>
       <c r="H90">
         <v>82000</v>
       </c>
       <c r="I90">
-        <v>22349.26554</v>
+        <v>19500</v>
       </c>
       <c r="J90">
         <v>60</v>
@@ -5909,13 +5912,13 @@
         <v>90</v>
       </c>
       <c r="L90">
-        <v>522</v>
+        <v>827</v>
       </c>
       <c r="M90">
         <v>4426.2</v>
       </c>
       <c r="N90">
-        <v>16861</v>
+        <v>11316.48361</v>
       </c>
       <c r="O90">
         <v>1811782</v>
@@ -5924,19 +5927,19 @@
         <v>5554501</v>
       </c>
       <c r="Q90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R90" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T90" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U90" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -5953,19 +5956,19 @@
         <v>49</v>
       </c>
       <c r="E91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F91">
         <v>700</v>
       </c>
       <c r="G91">
-        <v>5076.65885146894</v>
+        <v>4832.09908970071</v>
       </c>
       <c r="H91">
         <v>82000</v>
       </c>
       <c r="I91">
-        <v>22349.26554</v>
+        <v>19500</v>
       </c>
       <c r="J91">
         <v>60</v>
@@ -5974,13 +5977,13 @@
         <v>90</v>
       </c>
       <c r="L91">
-        <v>522</v>
+        <v>827</v>
       </c>
       <c r="M91">
         <v>4426.2</v>
       </c>
       <c r="N91">
-        <v>16861</v>
+        <v>11316.48361</v>
       </c>
       <c r="O91">
         <v>1811782</v>
@@ -5989,19 +5992,19 @@
         <v>5554501</v>
       </c>
       <c r="Q91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R91" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S91" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T91" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U91" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -6018,19 +6021,19 @@
         <v>49</v>
       </c>
       <c r="E92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F92">
         <v>700</v>
       </c>
       <c r="G92">
-        <v>5076.65885146894</v>
+        <v>4832.09908970071</v>
       </c>
       <c r="H92">
         <v>82000</v>
       </c>
       <c r="I92">
-        <v>22349.26554</v>
+        <v>19500</v>
       </c>
       <c r="J92">
         <v>60</v>
@@ -6039,13 +6042,13 @@
         <v>90</v>
       </c>
       <c r="L92">
-        <v>522</v>
+        <v>827</v>
       </c>
       <c r="M92">
         <v>4426.2</v>
       </c>
       <c r="N92">
-        <v>16861</v>
+        <v>11316.48361</v>
       </c>
       <c r="O92">
         <v>1811782</v>
@@ -6054,19 +6057,19 @@
         <v>5554501</v>
       </c>
       <c r="Q92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S92" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T92" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U92" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6083,13 +6086,13 @@
         <v>49</v>
       </c>
       <c r="E93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F93">
         <v>0.00393</v>
       </c>
       <c r="G93">
-        <v>0.116852424768962</v>
+        <v>0.116865835947322</v>
       </c>
       <c r="H93">
         <v>6.12270941047719</v>
@@ -6098,7 +6101,7 @@
         <v>0.06821000000000001</v>
       </c>
       <c r="L93">
-        <v>0.00168</v>
+        <v>0.00262</v>
       </c>
       <c r="M93">
         <v>0.01666</v>
@@ -6113,19 +6116,19 @@
         <v>5554501</v>
       </c>
       <c r="Q93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R93" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S93" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T93" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U93" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6142,13 +6145,13 @@
         <v>49</v>
       </c>
       <c r="E94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F94">
         <v>0.00393</v>
       </c>
       <c r="G94">
-        <v>0.116852424768962</v>
+        <v>0.116865835947322</v>
       </c>
       <c r="H94">
         <v>6.12270941047719</v>
@@ -6157,7 +6160,7 @@
         <v>0.06821000000000001</v>
       </c>
       <c r="L94">
-        <v>0.00168</v>
+        <v>0.00262</v>
       </c>
       <c r="M94">
         <v>0.01666</v>
@@ -6172,19 +6175,19 @@
         <v>5554501</v>
       </c>
       <c r="Q94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R94" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T94" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U94" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6201,13 +6204,13 @@
         <v>49</v>
       </c>
       <c r="E95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F95">
         <v>0.11135</v>
       </c>
       <c r="G95">
-        <v>0.583445208538483</v>
+        <v>0.583406178863353</v>
       </c>
       <c r="H95">
         <v>3.674</v>
@@ -6216,7 +6219,7 @@
         <v>2.61535</v>
       </c>
       <c r="L95">
-        <v>0.0015</v>
+        <v>0.00238</v>
       </c>
       <c r="M95">
         <v>1.556</v>
@@ -6231,19 +6234,19 @@
         <v>5554501</v>
       </c>
       <c r="Q95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R95" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S95" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T95" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U95" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6260,13 +6263,13 @@
         <v>49</v>
       </c>
       <c r="E96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F96">
         <v>0.11135</v>
       </c>
       <c r="G96">
-        <v>0.583445208538483</v>
+        <v>0.583406178863353</v>
       </c>
       <c r="H96">
         <v>3.674</v>
@@ -6275,7 +6278,7 @@
         <v>2.61535</v>
       </c>
       <c r="L96">
-        <v>0.0015</v>
+        <v>0.00238</v>
       </c>
       <c r="M96">
         <v>1.556</v>
@@ -6290,19 +6293,19 @@
         <v>5554501</v>
       </c>
       <c r="Q96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R96" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S96" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U96" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6316,13 +6319,13 @@
         <v>49</v>
       </c>
       <c r="E97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F97">
         <v>0.13325</v>
       </c>
       <c r="G97">
-        <v>0.827573301052012</v>
+        <v>0.827660468361567</v>
       </c>
       <c r="H97">
         <v>12.72</v>
@@ -6331,7 +6334,7 @@
         <v>2.9435</v>
       </c>
       <c r="L97">
-        <v>0.00627</v>
+        <v>0.0114</v>
       </c>
       <c r="M97">
         <v>1.756</v>
@@ -6346,19 +6349,19 @@
         <v>5554501</v>
       </c>
       <c r="Q97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S97" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T97" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U97" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6372,13 +6375,13 @@
         <v>49</v>
       </c>
       <c r="E98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F98">
         <v>0.13325</v>
       </c>
       <c r="G98">
-        <v>0.827573301052012</v>
+        <v>0.827660468361567</v>
       </c>
       <c r="H98">
         <v>12.72</v>
@@ -6387,7 +6390,7 @@
         <v>2.9435</v>
       </c>
       <c r="L98">
-        <v>0.00627</v>
+        <v>0.0114</v>
       </c>
       <c r="M98">
         <v>1.756</v>
@@ -6402,19 +6405,19 @@
         <v>5554501</v>
       </c>
       <c r="Q98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S98" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T98" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U98" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6428,7 +6431,7 @@
         <v>49</v>
       </c>
       <c r="E99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F99">
         <v>0.8715000000000001</v>
@@ -6443,7 +6446,7 @@
         <v>4.7765</v>
       </c>
       <c r="L99">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="M99">
         <v>2.823</v>
@@ -6458,19 +6461,19 @@
         <v>5554501</v>
       </c>
       <c r="Q99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T99" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U99" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6484,7 +6487,7 @@
         <v>49</v>
       </c>
       <c r="E100" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F100">
         <v>0.8715000000000001</v>
@@ -6499,7 +6502,7 @@
         <v>4.7765</v>
       </c>
       <c r="L100">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="M100">
         <v>2.823</v>
@@ -6514,19 +6517,19 @@
         <v>5554501</v>
       </c>
       <c r="Q100" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S100" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T100" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U100" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6540,7 +6543,7 @@
         <v>49</v>
       </c>
       <c r="E101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F101">
         <v>0.1045</v>
@@ -6555,7 +6558,7 @@
         <v>0.699</v>
       </c>
       <c r="L101">
-        <v>0.105</v>
+        <v>0.122</v>
       </c>
       <c r="M101">
         <v>0.1703</v>
@@ -6570,19 +6573,19 @@
         <v>5554501</v>
       </c>
       <c r="Q101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T101" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U101" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6596,7 +6599,7 @@
         <v>49</v>
       </c>
       <c r="E102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F102">
         <v>0.1045</v>
@@ -6611,7 +6614,7 @@
         <v>0.699</v>
       </c>
       <c r="L102">
-        <v>0.105</v>
+        <v>0.122</v>
       </c>
       <c r="M102">
         <v>0.1703</v>
@@ -6626,19 +6629,19 @@
         <v>5554501</v>
       </c>
       <c r="Q102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S102" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T102" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U102" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -6655,22 +6658,22 @@
         <v>50</v>
       </c>
       <c r="E103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F103">
         <v>0.33</v>
       </c>
       <c r="G103">
-        <v>0.433269940351732</v>
+        <v>0.439681932855887</v>
       </c>
       <c r="H103">
-        <v>2.45660743512447</v>
+        <v>2.73232311280315</v>
       </c>
       <c r="I103">
         <v>1.349</v>
       </c>
       <c r="L103">
-        <v>0.37</v>
+        <v>0.3535</v>
       </c>
       <c r="M103">
         <v>0.62165</v>
@@ -6685,19 +6688,19 @@
         <v>5554501</v>
       </c>
       <c r="Q103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S103" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T103" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U103" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -6714,7 +6717,7 @@
         <v>50</v>
       </c>
       <c r="E104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F104">
         <v>0.0205</v>
@@ -6729,7 +6732,7 @@
         <v>0.1785</v>
       </c>
       <c r="L104">
-        <v>0.0225</v>
+        <v>0.0245</v>
       </c>
       <c r="M104">
         <v>0.0353</v>
@@ -6744,19 +6747,19 @@
         <v>5554501</v>
       </c>
       <c r="Q104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S104" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T104" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U104" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -6773,7 +6776,7 @@
         <v>50</v>
       </c>
       <c r="E105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F105">
         <v>0.0205</v>
@@ -6788,7 +6791,7 @@
         <v>0.1785</v>
       </c>
       <c r="L105">
-        <v>0.0225</v>
+        <v>0.0245</v>
       </c>
       <c r="M105">
         <v>0.0353</v>
@@ -6803,19 +6806,19 @@
         <v>5554501</v>
       </c>
       <c r="Q105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S105" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T105" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U105" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -6832,19 +6835,19 @@
         <v>50</v>
       </c>
       <c r="E106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F106">
         <v>595</v>
       </c>
       <c r="G106">
-        <v>4691.94218480227</v>
+        <v>4447.38242303405</v>
       </c>
       <c r="H106">
         <v>82000</v>
       </c>
       <c r="I106">
-        <v>22349.26554</v>
+        <v>19500</v>
       </c>
       <c r="J106">
         <v>53.3333333333333</v>
@@ -6853,13 +6856,13 @@
         <v>86.6666666666667</v>
       </c>
       <c r="L106">
-        <v>480</v>
+        <v>555</v>
       </c>
       <c r="M106">
         <v>3069.8</v>
       </c>
       <c r="N106">
-        <v>16210</v>
+        <v>9927.46177</v>
       </c>
       <c r="O106">
         <v>1811782</v>
@@ -6868,19 +6871,19 @@
         <v>5554501</v>
       </c>
       <c r="Q106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S106" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T106" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U106" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -6897,19 +6900,19 @@
         <v>50</v>
       </c>
       <c r="E107" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F107">
         <v>595</v>
       </c>
       <c r="G107">
-        <v>4691.94218480227</v>
+        <v>4447.38242303405</v>
       </c>
       <c r="H107">
         <v>82000</v>
       </c>
       <c r="I107">
-        <v>22349.26554</v>
+        <v>19500</v>
       </c>
       <c r="J107">
         <v>53.3333333333333</v>
@@ -6918,13 +6921,13 @@
         <v>86.6666666666667</v>
       </c>
       <c r="L107">
-        <v>480</v>
+        <v>555</v>
       </c>
       <c r="M107">
         <v>3069.8</v>
       </c>
       <c r="N107">
-        <v>16210</v>
+        <v>9927.46177</v>
       </c>
       <c r="O107">
         <v>1811782</v>
@@ -6933,19 +6936,19 @@
         <v>5554501</v>
       </c>
       <c r="Q107" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R107" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S107" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T107" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U107" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -6962,19 +6965,19 @@
         <v>50</v>
       </c>
       <c r="E108" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F108">
         <v>595</v>
       </c>
       <c r="G108">
-        <v>4691.94218480227</v>
+        <v>4447.38242303405</v>
       </c>
       <c r="H108">
         <v>82000</v>
       </c>
       <c r="I108">
-        <v>22349.26554</v>
+        <v>19500</v>
       </c>
       <c r="J108">
         <v>53.3333333333333</v>
@@ -6983,13 +6986,13 @@
         <v>86.6666666666667</v>
       </c>
       <c r="L108">
-        <v>480</v>
+        <v>555</v>
       </c>
       <c r="M108">
         <v>3069.8</v>
       </c>
       <c r="N108">
-        <v>16210</v>
+        <v>9927.46177</v>
       </c>
       <c r="O108">
         <v>1811782</v>
@@ -6998,19 +7001,19 @@
         <v>5554501</v>
       </c>
       <c r="Q108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R108" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S108" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T108" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U108" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -7027,19 +7030,19 @@
         <v>50</v>
       </c>
       <c r="E109" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F109">
         <v>595</v>
       </c>
       <c r="G109">
-        <v>4691.94218480227</v>
+        <v>4447.38242303405</v>
       </c>
       <c r="H109">
         <v>82000</v>
       </c>
       <c r="I109">
-        <v>22349.26554</v>
+        <v>19500</v>
       </c>
       <c r="J109">
         <v>53.3333333333333</v>
@@ -7048,13 +7051,13 @@
         <v>86.6666666666667</v>
       </c>
       <c r="L109">
-        <v>480</v>
+        <v>555</v>
       </c>
       <c r="M109">
         <v>3069.8</v>
       </c>
       <c r="N109">
-        <v>16210</v>
+        <v>9927.46177</v>
       </c>
       <c r="O109">
         <v>1811782</v>
@@ -7063,19 +7066,19 @@
         <v>5554501</v>
       </c>
       <c r="Q109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S109" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T109" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U109" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7092,13 +7095,13 @@
         <v>50</v>
       </c>
       <c r="E110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F110">
         <v>0.00768</v>
       </c>
       <c r="G110">
-        <v>0.117671295005434</v>
+        <v>0.117686409168054</v>
       </c>
       <c r="H110">
         <v>6.12270941047719</v>
@@ -7107,7 +7110,7 @@
         <v>0.06821000000000001</v>
       </c>
       <c r="L110">
-        <v>0.00265</v>
+        <v>0.00279</v>
       </c>
       <c r="M110">
         <v>0.01654</v>
@@ -7122,19 +7125,19 @@
         <v>5554501</v>
       </c>
       <c r="Q110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R110" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S110" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T110" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U110" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7151,13 +7154,13 @@
         <v>50</v>
       </c>
       <c r="E111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F111">
         <v>0.00768</v>
       </c>
       <c r="G111">
-        <v>0.117671295005434</v>
+        <v>0.117686409168054</v>
       </c>
       <c r="H111">
         <v>6.12270941047719</v>
@@ -7166,7 +7169,7 @@
         <v>0.06821000000000001</v>
       </c>
       <c r="L111">
-        <v>0.00265</v>
+        <v>0.00279</v>
       </c>
       <c r="M111">
         <v>0.01654</v>
@@ -7181,19 +7184,19 @@
         <v>5554501</v>
       </c>
       <c r="Q111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R111" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S111" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T111" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U111" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7210,13 +7213,13 @@
         <v>50</v>
       </c>
       <c r="E112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F112">
         <v>0.1015</v>
       </c>
       <c r="G112">
-        <v>0.630278541871817</v>
+        <v>0.6302395121966869</v>
       </c>
       <c r="H112">
         <v>4.03</v>
@@ -7225,7 +7228,7 @@
         <v>2.85295</v>
       </c>
       <c r="L112">
-        <v>0.00327</v>
+        <v>0.0075</v>
       </c>
       <c r="M112">
         <v>1.556</v>
@@ -7240,19 +7243,19 @@
         <v>5554501</v>
       </c>
       <c r="Q112" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R112" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S112" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T112" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U112" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7269,13 +7272,13 @@
         <v>50</v>
       </c>
       <c r="E113" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F113">
         <v>0.1015</v>
       </c>
       <c r="G113">
-        <v>0.630278541871817</v>
+        <v>0.6302395121966869</v>
       </c>
       <c r="H113">
         <v>4.03</v>
@@ -7284,7 +7287,7 @@
         <v>2.85295</v>
       </c>
       <c r="L113">
-        <v>0.00327</v>
+        <v>0.0075</v>
       </c>
       <c r="M113">
         <v>1.556</v>
@@ -7299,19 +7302,19 @@
         <v>5554501</v>
       </c>
       <c r="Q113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R113" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S113" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T113" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U113" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7325,13 +7328,13 @@
         <v>50</v>
       </c>
       <c r="E114" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F114">
         <v>0.11925</v>
       </c>
       <c r="G114">
-        <v>0.876378301052012</v>
+        <v>0.876465468361567</v>
       </c>
       <c r="H114">
         <v>12.72</v>
@@ -7340,7 +7343,7 @@
         <v>3.4438</v>
       </c>
       <c r="L114">
-        <v>0.01012</v>
+        <v>0.02</v>
       </c>
       <c r="M114">
         <v>1.756</v>
@@ -7355,19 +7358,19 @@
         <v>5554501</v>
       </c>
       <c r="Q114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R114" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S114" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T114" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U114" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -7381,13 +7384,13 @@
         <v>50</v>
       </c>
       <c r="E115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F115">
         <v>0.11925</v>
       </c>
       <c r="G115">
-        <v>0.876378301052012</v>
+        <v>0.876465468361567</v>
       </c>
       <c r="H115">
         <v>12.72</v>
@@ -7396,7 +7399,7 @@
         <v>3.4438</v>
       </c>
       <c r="L115">
-        <v>0.01012</v>
+        <v>0.02</v>
       </c>
       <c r="M115">
         <v>1.756</v>
@@ -7411,19 +7414,19 @@
         <v>5554501</v>
       </c>
       <c r="Q115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R115" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S115" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T115" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U115" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -7437,7 +7440,7 @@
         <v>50</v>
       </c>
       <c r="E116" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F116">
         <v>0.87</v>
@@ -7452,7 +7455,7 @@
         <v>4.84</v>
       </c>
       <c r="L116">
-        <v>0.505</v>
+        <v>0.525</v>
       </c>
       <c r="M116">
         <v>2.823</v>
@@ -7467,19 +7470,19 @@
         <v>5554501</v>
       </c>
       <c r="Q116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R116" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S116" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T116" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U116" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -7493,7 +7496,7 @@
         <v>50</v>
       </c>
       <c r="E117" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F117">
         <v>0.87</v>
@@ -7508,7 +7511,7 @@
         <v>4.84</v>
       </c>
       <c r="L117">
-        <v>0.505</v>
+        <v>0.525</v>
       </c>
       <c r="M117">
         <v>2.823</v>
@@ -7523,19 +7526,19 @@
         <v>5554501</v>
       </c>
       <c r="Q117" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R117" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T117" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U117" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -7549,7 +7552,7 @@
         <v>50</v>
       </c>
       <c r="E118" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F118">
         <v>0.11</v>
@@ -7564,7 +7567,7 @@
         <v>0.699</v>
       </c>
       <c r="L118">
-        <v>0.105</v>
+        <v>0.1175</v>
       </c>
       <c r="M118">
         <v>0.1872</v>
@@ -7579,19 +7582,19 @@
         <v>5554501</v>
       </c>
       <c r="Q118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R118" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S118" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U118" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -7605,7 +7608,7 @@
         <v>50</v>
       </c>
       <c r="E119" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F119">
         <v>0.11</v>
@@ -7620,7 +7623,7 @@
         <v>0.699</v>
       </c>
       <c r="L119">
-        <v>0.105</v>
+        <v>0.1175</v>
       </c>
       <c r="M119">
         <v>0.1872</v>
@@ -7635,19 +7638,19 @@
         <v>5554501</v>
       </c>
       <c r="Q119" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R119" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S119" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T119" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U119" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -7664,7 +7667,7 @@
         <v>51</v>
       </c>
       <c r="E120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F120">
         <v>0.33</v>
@@ -7679,7 +7682,7 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="L120">
-        <v>0.37</v>
+        <v>0.377</v>
       </c>
       <c r="M120">
         <v>0.457</v>
@@ -7694,19 +7697,19 @@
         <v>5554501</v>
       </c>
       <c r="Q120" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R120" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S120" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T120" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U120" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -7723,7 +7726,7 @@
         <v>51</v>
       </c>
       <c r="E121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F121">
         <v>0.019</v>
@@ -7753,19 +7756,19 @@
         <v>5554501</v>
       </c>
       <c r="Q121" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R121" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S121" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T121" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U121" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -7782,7 +7785,7 @@
         <v>51</v>
       </c>
       <c r="E122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F122">
         <v>0.019</v>
@@ -7812,19 +7815,19 @@
         <v>5554501</v>
       </c>
       <c r="Q122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R122" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S122" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T122" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U122" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -7841,19 +7844,19 @@
         <v>51</v>
       </c>
       <c r="E123" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F123">
         <v>520</v>
       </c>
       <c r="G123">
-        <v>3040.3140862396</v>
+        <v>2791.60924376344</v>
       </c>
       <c r="H123">
         <v>69000</v>
       </c>
       <c r="I123">
-        <v>15365</v>
+        <v>9878.71996</v>
       </c>
       <c r="J123">
         <v>49.1525423728814</v>
@@ -7862,7 +7865,7 @@
         <v>83.0508474576271</v>
       </c>
       <c r="L123">
-        <v>510</v>
+        <v>590</v>
       </c>
       <c r="M123">
         <v>2600</v>
@@ -7877,19 +7880,19 @@
         <v>5554501</v>
       </c>
       <c r="Q123" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R123" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S123" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T123" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U123" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -7906,19 +7909,19 @@
         <v>51</v>
       </c>
       <c r="E124" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F124">
         <v>520</v>
       </c>
       <c r="G124">
-        <v>3040.3140862396</v>
+        <v>2791.60924376344</v>
       </c>
       <c r="H124">
         <v>69000</v>
       </c>
       <c r="I124">
-        <v>15365</v>
+        <v>9878.71996</v>
       </c>
       <c r="J124">
         <v>49.1525423728814</v>
@@ -7927,7 +7930,7 @@
         <v>83.0508474576271</v>
       </c>
       <c r="L124">
-        <v>510</v>
+        <v>590</v>
       </c>
       <c r="M124">
         <v>2600</v>
@@ -7942,19 +7945,19 @@
         <v>5554501</v>
       </c>
       <c r="Q124" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R124" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T124" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U124" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -7971,19 +7974,19 @@
         <v>51</v>
       </c>
       <c r="E125" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F125">
         <v>520</v>
       </c>
       <c r="G125">
-        <v>3040.3140862396</v>
+        <v>2791.60924376344</v>
       </c>
       <c r="H125">
         <v>69000</v>
       </c>
       <c r="I125">
-        <v>15365</v>
+        <v>9878.71996</v>
       </c>
       <c r="J125">
         <v>49.1525423728814</v>
@@ -7992,7 +7995,7 @@
         <v>83.0508474576271</v>
       </c>
       <c r="L125">
-        <v>510</v>
+        <v>590</v>
       </c>
       <c r="M125">
         <v>2600</v>
@@ -8007,19 +8010,19 @@
         <v>5554501</v>
       </c>
       <c r="Q125" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R125" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S125" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T125" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U125" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -8036,19 +8039,19 @@
         <v>51</v>
       </c>
       <c r="E126" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F126">
         <v>520</v>
       </c>
       <c r="G126">
-        <v>3040.3140862396</v>
+        <v>2791.60924376344</v>
       </c>
       <c r="H126">
         <v>69000</v>
       </c>
       <c r="I126">
-        <v>15365</v>
+        <v>9878.71996</v>
       </c>
       <c r="J126">
         <v>49.1525423728814</v>
@@ -8057,7 +8060,7 @@
         <v>83.0508474576271</v>
       </c>
       <c r="L126">
-        <v>510</v>
+        <v>590</v>
       </c>
       <c r="M126">
         <v>2600</v>
@@ -8072,19 +8075,19 @@
         <v>5554501</v>
       </c>
       <c r="Q126" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R126" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S126" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T126" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U126" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -8101,13 +8104,13 @@
         <v>51</v>
       </c>
       <c r="E127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F127">
         <v>0.00797</v>
       </c>
       <c r="G127">
-        <v>0.127596339581587</v>
+        <v>0.127611269057353</v>
       </c>
       <c r="H127">
         <v>6.12270941047719</v>
@@ -8116,7 +8119,7 @@
         <v>0.04594</v>
       </c>
       <c r="L127">
-        <v>0.00385</v>
+        <v>0.00595</v>
       </c>
       <c r="M127">
         <v>0.01739</v>
@@ -8131,19 +8134,19 @@
         <v>5554501</v>
       </c>
       <c r="Q127" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S127" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T127" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U127" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -8160,13 +8163,13 @@
         <v>51</v>
       </c>
       <c r="E128" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F128">
         <v>0.00797</v>
       </c>
       <c r="G128">
-        <v>0.127596339581587</v>
+        <v>0.127611269057353</v>
       </c>
       <c r="H128">
         <v>6.12270941047719</v>
@@ -8175,7 +8178,7 @@
         <v>0.04594</v>
       </c>
       <c r="L128">
-        <v>0.00385</v>
+        <v>0.00595</v>
       </c>
       <c r="M128">
         <v>0.01739</v>
@@ -8190,19 +8193,19 @@
         <v>5554501</v>
       </c>
       <c r="Q128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R128" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S128" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T128" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U128" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="129" spans="1:21">
@@ -8219,13 +8222,13 @@
         <v>51</v>
       </c>
       <c r="E129" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F129">
         <v>0.1</v>
       </c>
       <c r="G129">
-        <v>0.611666123182135</v>
+        <v>0.61161578021298</v>
       </c>
       <c r="H129">
         <v>4.3</v>
@@ -8234,7 +8237,7 @@
         <v>2.7535</v>
       </c>
       <c r="L129">
-        <v>0.0065</v>
+        <v>0.007</v>
       </c>
       <c r="M129">
         <v>1.2258</v>
@@ -8249,19 +8252,19 @@
         <v>5554501</v>
       </c>
       <c r="Q129" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R129" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S129" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T129" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U129" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130" spans="1:21">
@@ -8278,13 +8281,13 @@
         <v>51</v>
       </c>
       <c r="E130" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F130">
         <v>0.1</v>
       </c>
       <c r="G130">
-        <v>0.611666123182135</v>
+        <v>0.61161578021298</v>
       </c>
       <c r="H130">
         <v>4.3</v>
@@ -8293,7 +8296,7 @@
         <v>2.7535</v>
       </c>
       <c r="L130">
-        <v>0.0065</v>
+        <v>0.007</v>
       </c>
       <c r="M130">
         <v>1.2258</v>
@@ -8308,19 +8311,19 @@
         <v>5554501</v>
       </c>
       <c r="Q130" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R130" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S130" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T130" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U130" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -8334,13 +8337,13 @@
         <v>51</v>
       </c>
       <c r="E131" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F131">
         <v>0.12</v>
       </c>
       <c r="G131">
-        <v>0.860182539302358</v>
+        <v>0.8602665285987841</v>
       </c>
       <c r="H131">
         <v>12.72</v>
@@ -8349,7 +8352,7 @@
         <v>3.665</v>
       </c>
       <c r="L131">
-        <v>0.0195</v>
+        <v>0.02</v>
       </c>
       <c r="M131">
         <v>1.5368</v>
@@ -8364,19 +8367,19 @@
         <v>5554501</v>
       </c>
       <c r="Q131" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R131" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S131" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T131" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U131" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -8390,13 +8393,13 @@
         <v>51</v>
       </c>
       <c r="E132" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F132">
         <v>0.12</v>
       </c>
       <c r="G132">
-        <v>0.860182539302358</v>
+        <v>0.8602665285987841</v>
       </c>
       <c r="H132">
         <v>12.72</v>
@@ -8405,7 +8408,7 @@
         <v>3.665</v>
       </c>
       <c r="L132">
-        <v>0.0195</v>
+        <v>0.02</v>
       </c>
       <c r="M132">
         <v>1.5368</v>
@@ -8420,19 +8423,19 @@
         <v>5554501</v>
       </c>
       <c r="Q132" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R132" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S132" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T132" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U132" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="133" spans="1:21">
@@ -8446,7 +8449,7 @@
         <v>51</v>
       </c>
       <c r="E133" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F133">
         <v>0.86</v>
@@ -8461,7 +8464,7 @@
         <v>4.855</v>
       </c>
       <c r="L133">
-        <v>0.485</v>
+        <v>0.51</v>
       </c>
       <c r="M133">
         <v>2.5993</v>
@@ -8476,19 +8479,19 @@
         <v>5554501</v>
       </c>
       <c r="Q133" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R133" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S133" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T133" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U133" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="134" spans="1:21">
@@ -8502,7 +8505,7 @@
         <v>51</v>
       </c>
       <c r="E134" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F134">
         <v>0.86</v>
@@ -8517,7 +8520,7 @@
         <v>4.855</v>
       </c>
       <c r="L134">
-        <v>0.485</v>
+        <v>0.51</v>
       </c>
       <c r="M134">
         <v>2.5993</v>
@@ -8532,19 +8535,19 @@
         <v>5554501</v>
       </c>
       <c r="Q134" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R134" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S134" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T134" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U134" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="135" spans="1:21">
@@ -8558,7 +8561,7 @@
         <v>51</v>
       </c>
       <c r="E135" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F135">
         <v>0.103</v>
@@ -8573,7 +8576,7 @@
         <v>0.4754</v>
       </c>
       <c r="L135">
-        <v>0.0975</v>
+        <v>0.107</v>
       </c>
       <c r="M135">
         <v>0.17217</v>
@@ -8588,19 +8591,19 @@
         <v>5554501</v>
       </c>
       <c r="Q135" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R135" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S135" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T135" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U135" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="136" spans="1:21">
@@ -8614,7 +8617,7 @@
         <v>51</v>
       </c>
       <c r="E136" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F136">
         <v>0.103</v>
@@ -8629,7 +8632,7 @@
         <v>0.4754</v>
       </c>
       <c r="L136">
-        <v>0.0975</v>
+        <v>0.107</v>
       </c>
       <c r="M136">
         <v>0.17217</v>
@@ -8644,19 +8647,19 @@
         <v>5554501</v>
       </c>
       <c r="Q136" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R136" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S136" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T136" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U136" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="137" spans="1:21">
@@ -8673,7 +8676,7 @@
         <v>52</v>
       </c>
       <c r="E137" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F137">
         <v>0.345</v>
@@ -8688,7 +8691,7 @@
         <v>0.923</v>
       </c>
       <c r="L137">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="M137">
         <v>0.4787</v>
@@ -8703,19 +8706,19 @@
         <v>5554501</v>
       </c>
       <c r="Q137" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R137" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S137" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T137" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U137" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="138" spans="1:21">
@@ -8732,7 +8735,7 @@
         <v>52</v>
       </c>
       <c r="E138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F138">
         <v>0.016</v>
@@ -8762,19 +8765,19 @@
         <v>5554501</v>
       </c>
       <c r="Q138" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S138" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T138" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U138" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="139" spans="1:21">
@@ -8791,7 +8794,7 @@
         <v>52</v>
       </c>
       <c r="E139" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F139">
         <v>0.016</v>
@@ -8821,19 +8824,19 @@
         <v>5554501</v>
       </c>
       <c r="Q139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R139" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S139" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T139" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U139" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="140" spans="1:21">
@@ -8850,16 +8853,16 @@
         <v>52</v>
       </c>
       <c r="E140" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F140">
         <v>510</v>
       </c>
       <c r="G140">
-        <v>1518.1954421718</v>
+        <v>1269.49059969564</v>
       </c>
       <c r="H140">
-        <v>24698.5310881364</v>
+        <v>10024.9453820428</v>
       </c>
       <c r="I140">
         <v>5165</v>
@@ -8871,7 +8874,7 @@
         <v>76.27118644067799</v>
       </c>
       <c r="L140">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="M140">
         <v>2194</v>
@@ -8886,19 +8889,19 @@
         <v>5554501</v>
       </c>
       <c r="Q140" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R140" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S140" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T140" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U140" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="141" spans="1:21">
@@ -8915,16 +8918,16 @@
         <v>52</v>
       </c>
       <c r="E141" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F141">
         <v>510</v>
       </c>
       <c r="G141">
-        <v>1518.1954421718</v>
+        <v>1269.49059969564</v>
       </c>
       <c r="H141">
-        <v>24698.5310881364</v>
+        <v>10024.9453820428</v>
       </c>
       <c r="I141">
         <v>5165</v>
@@ -8936,7 +8939,7 @@
         <v>76.27118644067799</v>
       </c>
       <c r="L141">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="M141">
         <v>2194</v>
@@ -8951,19 +8954,19 @@
         <v>5554501</v>
       </c>
       <c r="Q141" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R141" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S141" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T141" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U141" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="142" spans="1:21">
@@ -8980,16 +8983,16 @@
         <v>52</v>
       </c>
       <c r="E142" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F142">
         <v>510</v>
       </c>
       <c r="G142">
-        <v>1518.1954421718</v>
+        <v>1269.49059969564</v>
       </c>
       <c r="H142">
-        <v>24698.5310881364</v>
+        <v>10024.9453820428</v>
       </c>
       <c r="I142">
         <v>5165</v>
@@ -9001,7 +9004,7 @@
         <v>76.27118644067799</v>
       </c>
       <c r="L142">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="M142">
         <v>2194</v>
@@ -9016,19 +9019,19 @@
         <v>5554501</v>
       </c>
       <c r="Q142" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R142" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S142" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T142" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U142" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="143" spans="1:21">
@@ -9045,16 +9048,16 @@
         <v>52</v>
       </c>
       <c r="E143" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F143">
         <v>510</v>
       </c>
       <c r="G143">
-        <v>1518.1954421718</v>
+        <v>1269.49059969564</v>
       </c>
       <c r="H143">
-        <v>24698.5310881364</v>
+        <v>10024.9453820428</v>
       </c>
       <c r="I143">
         <v>5165</v>
@@ -9066,7 +9069,7 @@
         <v>76.27118644067799</v>
       </c>
       <c r="L143">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="M143">
         <v>2194</v>
@@ -9081,19 +9084,19 @@
         <v>5554501</v>
       </c>
       <c r="Q143" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R143" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S143" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T143" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U143" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -9110,13 +9113,13 @@
         <v>52</v>
       </c>
       <c r="E144" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F144">
         <v>0.00827</v>
       </c>
       <c r="G144">
-        <v>0.125715064429235</v>
+        <v>0.125724149766294</v>
       </c>
       <c r="H144">
         <v>6.12270941047719</v>
@@ -9125,7 +9128,7 @@
         <v>0.04002</v>
       </c>
       <c r="L144">
-        <v>0.00595</v>
+        <v>0.00793</v>
       </c>
       <c r="M144">
         <v>0.01451</v>
@@ -9140,19 +9143,19 @@
         <v>5554501</v>
       </c>
       <c r="Q144" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R144" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S144" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T144" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U144" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="145" spans="1:21">
@@ -9169,13 +9172,13 @@
         <v>52</v>
       </c>
       <c r="E145" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F145">
         <v>0.00827</v>
       </c>
       <c r="G145">
-        <v>0.125715064429235</v>
+        <v>0.125724149766294</v>
       </c>
       <c r="H145">
         <v>6.12270941047719</v>
@@ -9184,7 +9187,7 @@
         <v>0.04002</v>
       </c>
       <c r="L145">
-        <v>0.00595</v>
+        <v>0.00793</v>
       </c>
       <c r="M145">
         <v>0.01451</v>
@@ -9199,19 +9202,19 @@
         <v>5554501</v>
       </c>
       <c r="Q145" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R145" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S145" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T145" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U145" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="146" spans="1:21">
@@ -9228,13 +9231,13 @@
         <v>52</v>
       </c>
       <c r="E146" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F146">
         <v>0.055</v>
       </c>
       <c r="G146">
-        <v>0.611401260481597</v>
+        <v>0.611348573864384</v>
       </c>
       <c r="H146">
         <v>4.3</v>
@@ -9243,7 +9246,7 @@
         <v>3.12</v>
       </c>
       <c r="L146">
-        <v>0.0075</v>
+        <v>0.008</v>
       </c>
       <c r="M146">
         <v>1.1547</v>
@@ -9258,19 +9261,19 @@
         <v>5554501</v>
       </c>
       <c r="Q146" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R146" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S146" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T146" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U146" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="147" spans="1:21">
@@ -9287,13 +9290,13 @@
         <v>52</v>
       </c>
       <c r="E147" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F147">
         <v>0.055</v>
       </c>
       <c r="G147">
-        <v>0.611401260481597</v>
+        <v>0.611348573864384</v>
       </c>
       <c r="H147">
         <v>4.3</v>
@@ -9302,7 +9305,7 @@
         <v>3.12</v>
       </c>
       <c r="L147">
-        <v>0.0075</v>
+        <v>0.008</v>
       </c>
       <c r="M147">
         <v>1.1547</v>
@@ -9317,19 +9320,19 @@
         <v>5554501</v>
       </c>
       <c r="Q147" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R147" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S147" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T147" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U147" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="148" spans="1:21">
@@ -9343,13 +9346,13 @@
         <v>52</v>
       </c>
       <c r="E148" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F148">
         <v>0.144</v>
       </c>
       <c r="G148">
-        <v>0.856005460775882</v>
+        <v>0.856054461569789</v>
       </c>
       <c r="H148">
         <v>12.72</v>
@@ -9358,7 +9361,7 @@
         <v>3.69695</v>
       </c>
       <c r="L148">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="M148">
         <v>1.2558</v>
@@ -9373,19 +9376,19 @@
         <v>5554501</v>
       </c>
       <c r="Q148" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R148" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S148" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T148" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U148" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="149" spans="1:21">
@@ -9399,13 +9402,13 @@
         <v>52</v>
       </c>
       <c r="E149" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F149">
         <v>0.144</v>
       </c>
       <c r="G149">
-        <v>0.856005460775882</v>
+        <v>0.856054461569789</v>
       </c>
       <c r="H149">
         <v>12.72</v>
@@ -9414,7 +9417,7 @@
         <v>3.69695</v>
       </c>
       <c r="L149">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="M149">
         <v>1.2558</v>
@@ -9429,19 +9432,19 @@
         <v>5554501</v>
       </c>
       <c r="Q149" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R149" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S149" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T149" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U149" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="150" spans="1:21">
@@ -9455,7 +9458,7 @@
         <v>52</v>
       </c>
       <c r="E150" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F150">
         <v>0.83</v>
@@ -9470,7 +9473,7 @@
         <v>4.855</v>
       </c>
       <c r="L150">
-        <v>0.505</v>
+        <v>0.53</v>
       </c>
       <c r="M150">
         <v>2.3646</v>
@@ -9485,19 +9488,19 @@
         <v>5554501</v>
       </c>
       <c r="Q150" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R150" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S150" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T150" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U150" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="151" spans="1:21">
@@ -9511,7 +9514,7 @@
         <v>52</v>
       </c>
       <c r="E151" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F151">
         <v>0.83</v>
@@ -9526,7 +9529,7 @@
         <v>4.855</v>
       </c>
       <c r="L151">
-        <v>0.505</v>
+        <v>0.53</v>
       </c>
       <c r="M151">
         <v>2.3646</v>
@@ -9541,19 +9544,19 @@
         <v>5554501</v>
       </c>
       <c r="Q151" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R151" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S151" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T151" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U151" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="152" spans="1:21">
@@ -9567,7 +9570,7 @@
         <v>52</v>
       </c>
       <c r="E152" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F152">
         <v>0.099</v>
@@ -9582,7 +9585,7 @@
         <v>0.33985</v>
       </c>
       <c r="L152">
-        <v>0.1085</v>
+        <v>0.114</v>
       </c>
       <c r="M152">
         <v>0.155</v>
@@ -9597,19 +9600,19 @@
         <v>5554501</v>
       </c>
       <c r="Q152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R152" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S152" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T152" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U152" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="153" spans="1:21">
@@ -9623,7 +9626,7 @@
         <v>52</v>
       </c>
       <c r="E153" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F153">
         <v>0.099</v>
@@ -9638,7 +9641,7 @@
         <v>0.33985</v>
       </c>
       <c r="L153">
-        <v>0.1085</v>
+        <v>0.114</v>
       </c>
       <c r="M153">
         <v>0.155</v>
@@ -9653,19 +9656,19 @@
         <v>5554501</v>
       </c>
       <c r="Q153" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R153" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S153" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T153" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U153" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="154" spans="1:21">
@@ -9682,7 +9685,7 @@
         <v>53</v>
       </c>
       <c r="E154" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F154">
         <v>0.018</v>
@@ -9697,7 +9700,7 @@
         <v>0.0444</v>
       </c>
       <c r="L154">
-        <v>0.021</v>
+        <v>0.0205</v>
       </c>
       <c r="M154">
         <v>0.02964</v>
@@ -9712,19 +9715,19 @@
         <v>5554501</v>
       </c>
       <c r="Q154" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R154" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S154" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T154" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U154" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="155" spans="1:21">
@@ -9741,7 +9744,7 @@
         <v>53</v>
       </c>
       <c r="E155" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F155">
         <v>0.018</v>
@@ -9756,7 +9759,7 @@
         <v>0.0444</v>
       </c>
       <c r="L155">
-        <v>0.021</v>
+        <v>0.0205</v>
       </c>
       <c r="M155">
         <v>0.02964</v>
@@ -9771,19 +9774,19 @@
         <v>5554501</v>
       </c>
       <c r="Q155" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R155" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S155" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T155" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U155" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="156" spans="1:21">
@@ -9800,16 +9803,16 @@
         <v>53</v>
       </c>
       <c r="E156" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F156">
         <v>470</v>
       </c>
       <c r="G156">
-        <v>1360.40570841614</v>
+        <v>1107.42664451798</v>
       </c>
       <c r="H156">
-        <v>24698.5310881364</v>
+        <v>10024.9453820428</v>
       </c>
       <c r="I156">
         <v>3420</v>
@@ -9821,7 +9824,7 @@
         <v>74.1379310344828</v>
       </c>
       <c r="L156">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="M156">
         <v>1956</v>
@@ -9836,19 +9839,19 @@
         <v>5554501</v>
       </c>
       <c r="Q156" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R156" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S156" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T156" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U156" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="157" spans="1:21">
@@ -9865,16 +9868,16 @@
         <v>53</v>
       </c>
       <c r="E157" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F157">
         <v>470</v>
       </c>
       <c r="G157">
-        <v>1360.40570841614</v>
+        <v>1107.42664451798</v>
       </c>
       <c r="H157">
-        <v>24698.5310881364</v>
+        <v>10024.9453820428</v>
       </c>
       <c r="I157">
         <v>3420</v>
@@ -9886,7 +9889,7 @@
         <v>74.1379310344828</v>
       </c>
       <c r="L157">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="M157">
         <v>1956</v>
@@ -9901,19 +9904,19 @@
         <v>5554501</v>
       </c>
       <c r="Q157" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R157" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S157" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T157" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U157" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="158" spans="1:21">
@@ -9930,16 +9933,16 @@
         <v>53</v>
       </c>
       <c r="E158" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F158">
         <v>470</v>
       </c>
       <c r="G158">
-        <v>1360.40570841614</v>
+        <v>1107.42664451798</v>
       </c>
       <c r="H158">
-        <v>24698.5310881364</v>
+        <v>10024.9453820428</v>
       </c>
       <c r="I158">
         <v>3420</v>
@@ -9951,7 +9954,7 @@
         <v>74.1379310344828</v>
       </c>
       <c r="L158">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="M158">
         <v>1956</v>
@@ -9966,19 +9969,19 @@
         <v>5554501</v>
       </c>
       <c r="Q158" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R158" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S158" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T158" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U158" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="159" spans="1:21">
@@ -9995,16 +9998,16 @@
         <v>53</v>
       </c>
       <c r="E159" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F159">
         <v>470</v>
       </c>
       <c r="G159">
-        <v>1360.40570841614</v>
+        <v>1107.42664451798</v>
       </c>
       <c r="H159">
-        <v>24698.5310881364</v>
+        <v>10024.9453820428</v>
       </c>
       <c r="I159">
         <v>3420</v>
@@ -10016,7 +10019,7 @@
         <v>74.1379310344828</v>
       </c>
       <c r="L159">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="M159">
         <v>1956</v>
@@ -10031,19 +10034,19 @@
         <v>5554501</v>
       </c>
       <c r="Q159" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R159" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S159" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T159" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U159" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="160" spans="1:21">
@@ -10060,13 +10063,13 @@
         <v>53</v>
       </c>
       <c r="E160" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F160">
         <v>0.008240000000000001</v>
       </c>
       <c r="G160">
-        <v>0.128271493578436</v>
+        <v>0.128275207621189</v>
       </c>
       <c r="H160">
         <v>6.12270941047719</v>
@@ -10090,19 +10093,19 @@
         <v>5554501</v>
       </c>
       <c r="Q160" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R160" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S160" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T160" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U160" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="161" spans="1:21">
@@ -10119,13 +10122,13 @@
         <v>53</v>
       </c>
       <c r="E161" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F161">
         <v>0.008240000000000001</v>
       </c>
       <c r="G161">
-        <v>0.128271493578436</v>
+        <v>0.128275207621189</v>
       </c>
       <c r="H161">
         <v>6.12270941047719</v>
@@ -10149,19 +10152,19 @@
         <v>5554501</v>
       </c>
       <c r="Q161" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R161" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S161" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T161" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U161" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162" spans="1:21">
@@ -10178,13 +10181,13 @@
         <v>53</v>
       </c>
       <c r="E162" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F162">
         <v>0.043</v>
       </c>
       <c r="G162">
-        <v>0.55522048736528</v>
+        <v>0.555171424998292</v>
       </c>
       <c r="H162">
         <v>4.3</v>
@@ -10193,7 +10196,7 @@
         <v>3.03</v>
       </c>
       <c r="L162">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="M162">
         <v>1.09</v>
@@ -10208,19 +10211,19 @@
         <v>5554501</v>
       </c>
       <c r="Q162" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R162" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S162" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T162" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U162" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="163" spans="1:21">
@@ -10237,13 +10240,13 @@
         <v>53</v>
       </c>
       <c r="E163" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F163">
         <v>0.043</v>
       </c>
       <c r="G163">
-        <v>0.55522048736528</v>
+        <v>0.555171424998292</v>
       </c>
       <c r="H163">
         <v>4.3</v>
@@ -10252,7 +10255,7 @@
         <v>3.03</v>
       </c>
       <c r="L163">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="M163">
         <v>1.09</v>
@@ -10267,19 +10270,19 @@
         <v>5554501</v>
       </c>
       <c r="Q163" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R163" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S163" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T163" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U163" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="164" spans="1:21">
@@ -10293,13 +10296,13 @@
         <v>53</v>
       </c>
       <c r="E164" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F164">
         <v>0.133</v>
       </c>
       <c r="G164">
-        <v>0.803834221538028</v>
+        <v>0.803870485921389</v>
       </c>
       <c r="H164">
         <v>12.72</v>
@@ -10308,7 +10311,7 @@
         <v>3.7384</v>
       </c>
       <c r="L164">
-        <v>0.022</v>
+        <v>0.031</v>
       </c>
       <c r="M164">
         <v>1.16236</v>
@@ -10323,19 +10326,19 @@
         <v>5554501</v>
       </c>
       <c r="Q164" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R164" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S164" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T164" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U164" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="165" spans="1:21">
@@ -10349,13 +10352,13 @@
         <v>53</v>
       </c>
       <c r="E165" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F165">
         <v>0.133</v>
       </c>
       <c r="G165">
-        <v>0.803834221538028</v>
+        <v>0.803870485921389</v>
       </c>
       <c r="H165">
         <v>12.72</v>
@@ -10364,7 +10367,7 @@
         <v>3.7384</v>
       </c>
       <c r="L165">
-        <v>0.022</v>
+        <v>0.031</v>
       </c>
       <c r="M165">
         <v>1.16236</v>
@@ -10379,19 +10382,19 @@
         <v>5554501</v>
       </c>
       <c r="Q165" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R165" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S165" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T165" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U165" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="166" spans="1:21">
@@ -10405,7 +10408,7 @@
         <v>53</v>
       </c>
       <c r="E166" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F166">
         <v>0.79</v>
@@ -10420,7 +10423,7 @@
         <v>4.414</v>
       </c>
       <c r="L166">
-        <v>0.53</v>
+        <v>0.595</v>
       </c>
       <c r="M166">
         <v>2.1908</v>
@@ -10435,19 +10438,19 @@
         <v>5554501</v>
       </c>
       <c r="Q166" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T166" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U166" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="167" spans="1:21">
@@ -10461,7 +10464,7 @@
         <v>53</v>
       </c>
       <c r="E167" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F167">
         <v>0.79</v>
@@ -10476,7 +10479,7 @@
         <v>4.414</v>
       </c>
       <c r="L167">
-        <v>0.53</v>
+        <v>0.595</v>
       </c>
       <c r="M167">
         <v>2.1908</v>
@@ -10491,19 +10494,19 @@
         <v>5554501</v>
       </c>
       <c r="Q167" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T167" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U167" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="168" spans="1:21">
@@ -10517,7 +10520,7 @@
         <v>53</v>
       </c>
       <c r="E168" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F168">
         <v>0.105</v>
@@ -10532,7 +10535,7 @@
         <v>0.308</v>
       </c>
       <c r="L168">
-        <v>0.114</v>
+        <v>0.121</v>
       </c>
       <c r="M168">
         <v>0.15428</v>
@@ -10547,19 +10550,19 @@
         <v>5554501</v>
       </c>
       <c r="Q168" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R168" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S168" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T168" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U168" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="169" spans="1:21">
@@ -10573,7 +10576,7 @@
         <v>53</v>
       </c>
       <c r="E169" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F169">
         <v>0.105</v>
@@ -10588,7 +10591,7 @@
         <v>0.308</v>
       </c>
       <c r="L169">
-        <v>0.114</v>
+        <v>0.121</v>
       </c>
       <c r="M169">
         <v>0.15428</v>
@@ -10603,19 +10606,19 @@
         <v>5554501</v>
       </c>
       <c r="Q169" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R169" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S169" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T169" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U169" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="170" spans="1:21">
@@ -10632,7 +10635,7 @@
         <v>54</v>
       </c>
       <c r="E170" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F170">
         <v>0.016</v>
@@ -10647,7 +10650,7 @@
         <v>0.0386</v>
       </c>
       <c r="L170">
-        <v>0.018</v>
+        <v>0.0175</v>
       </c>
       <c r="M170">
         <v>0.02864</v>
@@ -10662,19 +10665,19 @@
         <v>5554501</v>
       </c>
       <c r="Q170" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R170" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S170" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T170" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U170" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="171" spans="1:21">
@@ -10691,7 +10694,7 @@
         <v>54</v>
       </c>
       <c r="E171" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F171">
         <v>0.016</v>
@@ -10706,7 +10709,7 @@
         <v>0.0386</v>
       </c>
       <c r="L171">
-        <v>0.018</v>
+        <v>0.0175</v>
       </c>
       <c r="M171">
         <v>0.02864</v>
@@ -10721,19 +10724,19 @@
         <v>5554501</v>
       </c>
       <c r="Q171" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R171" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S171" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T171" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U171" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="172" spans="1:21">
@@ -10750,16 +10753,16 @@
         <v>54</v>
       </c>
       <c r="E172" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F172">
-        <v>342</v>
+        <v>342.2</v>
       </c>
       <c r="G172">
-        <v>731.0689655172411</v>
+        <v>731.113793103448</v>
       </c>
       <c r="H172">
-        <v>6932</v>
+        <v>6931.6</v>
       </c>
       <c r="I172">
         <v>2600</v>
@@ -10771,10 +10774,10 @@
         <v>63.7931034482759</v>
       </c>
       <c r="L172">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="M172">
-        <v>1178.4</v>
+        <v>1178.544</v>
       </c>
       <c r="N172">
         <v>2272</v>
@@ -10786,19 +10789,19 @@
         <v>5554501</v>
       </c>
       <c r="Q172" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R172" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S172" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T172" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U172" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="173" spans="1:21">
@@ -10815,16 +10818,16 @@
         <v>54</v>
       </c>
       <c r="E173" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F173">
-        <v>342</v>
+        <v>342.2</v>
       </c>
       <c r="G173">
-        <v>731.0689655172411</v>
+        <v>731.113793103448</v>
       </c>
       <c r="H173">
-        <v>6932</v>
+        <v>6931.6</v>
       </c>
       <c r="I173">
         <v>2600</v>
@@ -10836,10 +10839,10 @@
         <v>63.7931034482759</v>
       </c>
       <c r="L173">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="M173">
-        <v>1178.4</v>
+        <v>1178.544</v>
       </c>
       <c r="N173">
         <v>2272</v>
@@ -10851,19 +10854,19 @@
         <v>5554501</v>
       </c>
       <c r="Q173" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R173" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S173" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T173" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U173" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="174" spans="1:21">
@@ -10880,16 +10883,16 @@
         <v>54</v>
       </c>
       <c r="E174" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F174">
-        <v>342</v>
+        <v>342.2</v>
       </c>
       <c r="G174">
-        <v>731.0689655172411</v>
+        <v>731.113793103448</v>
       </c>
       <c r="H174">
-        <v>6932</v>
+        <v>6931.6</v>
       </c>
       <c r="I174">
         <v>2600</v>
@@ -10901,10 +10904,10 @@
         <v>63.7931034482759</v>
       </c>
       <c r="L174">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="M174">
-        <v>1178.4</v>
+        <v>1178.544</v>
       </c>
       <c r="N174">
         <v>2272</v>
@@ -10916,19 +10919,19 @@
         <v>5554501</v>
       </c>
       <c r="Q174" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R174" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S174" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T174" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U174" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="175" spans="1:21">
@@ -10945,16 +10948,16 @@
         <v>54</v>
       </c>
       <c r="E175" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F175">
-        <v>342</v>
+        <v>342.2</v>
       </c>
       <c r="G175">
-        <v>731.0689655172411</v>
+        <v>731.113793103448</v>
       </c>
       <c r="H175">
-        <v>6932</v>
+        <v>6931.6</v>
       </c>
       <c r="I175">
         <v>2600</v>
@@ -10966,10 +10969,10 @@
         <v>63.7931034482759</v>
       </c>
       <c r="L175">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="M175">
-        <v>1178.4</v>
+        <v>1178.544</v>
       </c>
       <c r="N175">
         <v>2272</v>
@@ -10981,19 +10984,19 @@
         <v>5554501</v>
       </c>
       <c r="Q175" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R175" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S175" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T175" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U175" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="176" spans="1:21">
@@ -11010,13 +11013,13 @@
         <v>54</v>
       </c>
       <c r="E176" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F176">
         <v>0.00793</v>
       </c>
       <c r="G176">
-        <v>0.010072787272866</v>
+        <v>0.0100746509160189</v>
       </c>
       <c r="H176">
         <v>0.0353715299578529</v>
@@ -11025,7 +11028,7 @@
         <v>0.02911</v>
       </c>
       <c r="L176">
-        <v>0.00595</v>
+        <v>0.00743</v>
       </c>
       <c r="M176">
         <v>0.01699</v>
@@ -11040,19 +11043,19 @@
         <v>5554501</v>
       </c>
       <c r="Q176" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R176" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S176" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T176" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U176" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="177" spans="1:21">
@@ -11069,13 +11072,13 @@
         <v>54</v>
       </c>
       <c r="E177" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F177">
         <v>0.00793</v>
       </c>
       <c r="G177">
-        <v>0.010072787272866</v>
+        <v>0.0100746509160189</v>
       </c>
       <c r="H177">
         <v>0.0353715299578529</v>
@@ -11084,7 +11087,7 @@
         <v>0.02911</v>
       </c>
       <c r="L177">
-        <v>0.00595</v>
+        <v>0.00743</v>
       </c>
       <c r="M177">
         <v>0.01699</v>
@@ -11099,19 +11102,19 @@
         <v>5554501</v>
       </c>
       <c r="Q177" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R177" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S177" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T177" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U177" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="178" spans="1:21">
@@ -11128,13 +11131,13 @@
         <v>54</v>
       </c>
       <c r="E178" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F178">
         <v>0.044</v>
       </c>
       <c r="G178">
-        <v>0.527206995001571</v>
+        <v>0.527151448526933</v>
       </c>
       <c r="H178">
         <v>4.3</v>
@@ -11143,7 +11146,7 @@
         <v>3.03</v>
       </c>
       <c r="L178">
-        <v>0.007</v>
+        <v>0.0075</v>
       </c>
       <c r="M178">
         <v>1.0648</v>
@@ -11158,19 +11161,19 @@
         <v>5554501</v>
       </c>
       <c r="Q178" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R178" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S178" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T178" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U178" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="179" spans="1:21">
@@ -11187,13 +11190,13 @@
         <v>54</v>
       </c>
       <c r="E179" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F179">
         <v>0.044</v>
       </c>
       <c r="G179">
-        <v>0.527206995001571</v>
+        <v>0.527151448526933</v>
       </c>
       <c r="H179">
         <v>4.3</v>
@@ -11202,7 +11205,7 @@
         <v>3.03</v>
       </c>
       <c r="L179">
-        <v>0.007</v>
+        <v>0.0075</v>
       </c>
       <c r="M179">
         <v>1.0648</v>
@@ -11217,19 +11220,19 @@
         <v>5554501</v>
       </c>
       <c r="Q179" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R179" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S179" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T179" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U179" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="180" spans="1:21">
@@ -11243,7 +11246,7 @@
         <v>54</v>
       </c>
       <c r="E180" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F180">
         <v>0.107</v>
@@ -11258,7 +11261,7 @@
         <v>3.0598</v>
       </c>
       <c r="L180">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="M180">
         <v>1.09824</v>
@@ -11273,19 +11276,19 @@
         <v>5554501</v>
       </c>
       <c r="Q180" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R180" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S180" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T180" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U180" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="181" spans="1:21">
@@ -11299,7 +11302,7 @@
         <v>54</v>
       </c>
       <c r="E181" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F181">
         <v>0.107</v>
@@ -11314,7 +11317,7 @@
         <v>3.0598</v>
       </c>
       <c r="L181">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="M181">
         <v>1.09824</v>
@@ -11329,19 +11332,19 @@
         <v>5554501</v>
       </c>
       <c r="Q181" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T181" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U181" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="182" spans="1:21">
@@ -11355,7 +11358,7 @@
         <v>54</v>
       </c>
       <c r="E182" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F182">
         <v>0.765</v>
@@ -11370,7 +11373,7 @@
         <v>3.896</v>
       </c>
       <c r="L182">
-        <v>0.5600000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="M182">
         <v>1.934</v>
@@ -11385,19 +11388,19 @@
         <v>5554501</v>
       </c>
       <c r="Q182" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R182" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S182" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T182" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U182" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="183" spans="1:21">
@@ -11411,7 +11414,7 @@
         <v>54</v>
       </c>
       <c r="E183" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F183">
         <v>0.765</v>
@@ -11426,7 +11429,7 @@
         <v>3.896</v>
       </c>
       <c r="L183">
-        <v>0.5600000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="M183">
         <v>1.934</v>
@@ -11441,19 +11444,19 @@
         <v>5554501</v>
       </c>
       <c r="Q183" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R183" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S183" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T183" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U183" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="184" spans="1:21">
@@ -11467,7 +11470,7 @@
         <v>54</v>
       </c>
       <c r="E184" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F184">
         <v>0.1005</v>
@@ -11482,7 +11485,7 @@
         <v>0.2926</v>
       </c>
       <c r="L184">
-        <v>0.112</v>
+        <v>0.113</v>
       </c>
       <c r="M184">
         <v>0.14904</v>
@@ -11497,19 +11500,19 @@
         <v>5554501</v>
       </c>
       <c r="Q184" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R184" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S184" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T184" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="185" spans="1:21">
@@ -11523,7 +11526,7 @@
         <v>54</v>
       </c>
       <c r="E185" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F185">
         <v>0.1005</v>
@@ -11538,7 +11541,7 @@
         <v>0.2926</v>
       </c>
       <c r="L185">
-        <v>0.112</v>
+        <v>0.113</v>
       </c>
       <c r="M185">
         <v>0.14904</v>
@@ -11553,19 +11556,969 @@
         <v>5554501</v>
       </c>
       <c r="Q185" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R185" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S185" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T185" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U185" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21">
+      <c r="A186" t="s">
+        <v>21</v>
+      </c>
+      <c r="B186" t="s">
+        <v>23</v>
+      </c>
+      <c r="C186" t="s">
+        <v>40</v>
+      </c>
+      <c r="D186" t="s">
+        <v>55</v>
+      </c>
+      <c r="E186" t="s">
+        <v>56</v>
+      </c>
+      <c r="F186">
+        <v>0.016</v>
+      </c>
+      <c r="G186">
+        <v>0.019948275862069</v>
+      </c>
+      <c r="H186">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I186">
+        <v>0.0558</v>
+      </c>
+      <c r="L186">
+        <v>0.0175</v>
+      </c>
+      <c r="M186">
+        <v>0.026</v>
+      </c>
+      <c r="N186">
+        <v>0.03758</v>
+      </c>
+      <c r="O186">
+        <v>1811782</v>
+      </c>
+      <c r="P186">
+        <v>5554501</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>57</v>
+      </c>
+      <c r="R186" t="s">
+        <v>58</v>
+      </c>
+      <c r="S186" t="s">
+        <v>59</v>
+      </c>
+      <c r="T186" t="s">
+        <v>60</v>
+      </c>
+      <c r="U186" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21">
+      <c r="A187" t="s">
+        <v>21</v>
+      </c>
+      <c r="B187" t="s">
+        <v>24</v>
+      </c>
+      <c r="C187" t="s">
+        <v>43</v>
+      </c>
+      <c r="D187" t="s">
+        <v>55</v>
+      </c>
+      <c r="E187" t="s">
+        <v>56</v>
+      </c>
+      <c r="F187">
+        <v>0.016</v>
+      </c>
+      <c r="G187">
+        <v>0.019948275862069</v>
+      </c>
+      <c r="H187">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I187">
+        <v>0.0558</v>
+      </c>
+      <c r="L187">
+        <v>0.0175</v>
+      </c>
+      <c r="M187">
+        <v>0.026</v>
+      </c>
+      <c r="N187">
+        <v>0.03758</v>
+      </c>
+      <c r="O187">
+        <v>1811782</v>
+      </c>
+      <c r="P187">
+        <v>5554501</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>57</v>
+      </c>
+      <c r="R187" t="s">
+        <v>58</v>
+      </c>
+      <c r="S187" t="s">
+        <v>59</v>
+      </c>
+      <c r="T187" t="s">
+        <v>60</v>
+      </c>
+      <c r="U187" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21">
+      <c r="A188" t="s">
+        <v>21</v>
+      </c>
+      <c r="B188" t="s">
+        <v>25</v>
+      </c>
+      <c r="C188" t="s">
+        <v>41</v>
+      </c>
+      <c r="D188" t="s">
+        <v>55</v>
+      </c>
+      <c r="E188" t="s">
+        <v>56</v>
+      </c>
+      <c r="F188">
+        <v>318.8</v>
+      </c>
+      <c r="G188">
+        <v>831.01724137931</v>
+      </c>
+      <c r="H188">
+        <v>7945.2</v>
+      </c>
+      <c r="I188">
+        <v>4159.28</v>
+      </c>
+      <c r="J188">
+        <v>27.5862068965517</v>
+      </c>
+      <c r="K188">
+        <v>60.3448275862069</v>
+      </c>
+      <c r="L188">
+        <v>323.2</v>
+      </c>
+      <c r="M188">
+        <v>1178.544</v>
+      </c>
+      <c r="N188">
+        <v>2474</v>
+      </c>
+      <c r="O188">
+        <v>1811782</v>
+      </c>
+      <c r="P188">
+        <v>5554501</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>57</v>
+      </c>
+      <c r="R188" t="s">
+        <v>58</v>
+      </c>
+      <c r="S188" t="s">
+        <v>59</v>
+      </c>
+      <c r="T188" t="s">
+        <v>60</v>
+      </c>
+      <c r="U188" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21">
+      <c r="A189" t="s">
+        <v>21</v>
+      </c>
+      <c r="B189" t="s">
+        <v>26</v>
+      </c>
+      <c r="C189" t="s">
+        <v>40</v>
+      </c>
+      <c r="D189" t="s">
+        <v>55</v>
+      </c>
+      <c r="E189" t="s">
+        <v>56</v>
+      </c>
+      <c r="F189">
+        <v>318.8</v>
+      </c>
+      <c r="G189">
+        <v>831.01724137931</v>
+      </c>
+      <c r="H189">
+        <v>7945.2</v>
+      </c>
+      <c r="I189">
+        <v>4159.28</v>
+      </c>
+      <c r="J189">
+        <v>27.5862068965517</v>
+      </c>
+      <c r="K189">
+        <v>60.3448275862069</v>
+      </c>
+      <c r="L189">
+        <v>323.2</v>
+      </c>
+      <c r="M189">
+        <v>1178.544</v>
+      </c>
+      <c r="N189">
+        <v>2474</v>
+      </c>
+      <c r="O189">
+        <v>1811782</v>
+      </c>
+      <c r="P189">
+        <v>5554501</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>57</v>
+      </c>
+      <c r="R189" t="s">
+        <v>58</v>
+      </c>
+      <c r="S189" t="s">
+        <v>59</v>
+      </c>
+      <c r="T189" t="s">
+        <v>60</v>
+      </c>
+      <c r="U189" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21">
+      <c r="A190" t="s">
+        <v>21</v>
+      </c>
+      <c r="B190" t="s">
+        <v>27</v>
+      </c>
+      <c r="C190" t="s">
+        <v>41</v>
+      </c>
+      <c r="D190" t="s">
+        <v>55</v>
+      </c>
+      <c r="E190" t="s">
+        <v>56</v>
+      </c>
+      <c r="F190">
+        <v>318.8</v>
+      </c>
+      <c r="G190">
+        <v>831.01724137931</v>
+      </c>
+      <c r="H190">
+        <v>7945.2</v>
+      </c>
+      <c r="I190">
+        <v>4159.28</v>
+      </c>
+      <c r="J190">
+        <v>27.5862068965517</v>
+      </c>
+      <c r="K190">
+        <v>60.3448275862069</v>
+      </c>
+      <c r="L190">
+        <v>323.2</v>
+      </c>
+      <c r="M190">
+        <v>1178.544</v>
+      </c>
+      <c r="N190">
+        <v>2474</v>
+      </c>
+      <c r="O190">
+        <v>1811782</v>
+      </c>
+      <c r="P190">
+        <v>5554501</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>57</v>
+      </c>
+      <c r="R190" t="s">
+        <v>58</v>
+      </c>
+      <c r="S190" t="s">
+        <v>59</v>
+      </c>
+      <c r="T190" t="s">
+        <v>60</v>
+      </c>
+      <c r="U190" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21">
+      <c r="A191" t="s">
+        <v>21</v>
+      </c>
+      <c r="B191" t="s">
+        <v>28</v>
+      </c>
+      <c r="C191" t="s">
+        <v>41</v>
+      </c>
+      <c r="D191" t="s">
+        <v>55</v>
+      </c>
+      <c r="E191" t="s">
+        <v>56</v>
+      </c>
+      <c r="F191">
+        <v>318.8</v>
+      </c>
+      <c r="G191">
+        <v>831.01724137931</v>
+      </c>
+      <c r="H191">
+        <v>7945.2</v>
+      </c>
+      <c r="I191">
+        <v>4159.28</v>
+      </c>
+      <c r="J191">
+        <v>27.5862068965517</v>
+      </c>
+      <c r="K191">
+        <v>60.3448275862069</v>
+      </c>
+      <c r="L191">
+        <v>323.2</v>
+      </c>
+      <c r="M191">
+        <v>1178.544</v>
+      </c>
+      <c r="N191">
+        <v>2474</v>
+      </c>
+      <c r="O191">
+        <v>1811782</v>
+      </c>
+      <c r="P191">
+        <v>5554501</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>57</v>
+      </c>
+      <c r="R191" t="s">
+        <v>58</v>
+      </c>
+      <c r="S191" t="s">
+        <v>59</v>
+      </c>
+      <c r="T191" t="s">
+        <v>60</v>
+      </c>
+      <c r="U191" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21">
+      <c r="A192" t="s">
+        <v>21</v>
+      </c>
+      <c r="B192" t="s">
+        <v>29</v>
+      </c>
+      <c r="C192" t="s">
+        <v>39</v>
+      </c>
+      <c r="D192" t="s">
+        <v>55</v>
+      </c>
+      <c r="E192" t="s">
+        <v>56</v>
+      </c>
+      <c r="F192">
+        <v>0.00721</v>
+      </c>
+      <c r="G192">
+        <v>0.0104276559258108</v>
+      </c>
+      <c r="H192">
+        <v>0.047157120477177</v>
+      </c>
+      <c r="I192">
+        <v>0.03092</v>
+      </c>
+      <c r="L192">
+        <v>0.00714</v>
+      </c>
+      <c r="M192">
+        <v>0.01966</v>
+      </c>
+      <c r="N192">
+        <v>0.0281</v>
+      </c>
+      <c r="O192">
+        <v>1811782</v>
+      </c>
+      <c r="P192">
+        <v>5554501</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>57</v>
+      </c>
+      <c r="R192" t="s">
+        <v>58</v>
+      </c>
+      <c r="S192" t="s">
+        <v>59</v>
+      </c>
+      <c r="T192" t="s">
+        <v>60</v>
+      </c>
+      <c r="U192" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21">
+      <c r="A193" t="s">
+        <v>21</v>
+      </c>
+      <c r="B193" t="s">
+        <v>30</v>
+      </c>
+      <c r="C193" t="s">
+        <v>39</v>
+      </c>
+      <c r="D193" t="s">
+        <v>55</v>
+      </c>
+      <c r="E193" t="s">
+        <v>56</v>
+      </c>
+      <c r="F193">
+        <v>0.00721</v>
+      </c>
+      <c r="G193">
+        <v>0.0104276559258108</v>
+      </c>
+      <c r="H193">
+        <v>0.047157120477177</v>
+      </c>
+      <c r="I193">
+        <v>0.03092</v>
+      </c>
+      <c r="L193">
+        <v>0.00714</v>
+      </c>
+      <c r="M193">
+        <v>0.01966</v>
+      </c>
+      <c r="N193">
+        <v>0.0281</v>
+      </c>
+      <c r="O193">
+        <v>1811782</v>
+      </c>
+      <c r="P193">
+        <v>5554501</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>57</v>
+      </c>
+      <c r="R193" t="s">
+        <v>58</v>
+      </c>
+      <c r="S193" t="s">
+        <v>59</v>
+      </c>
+      <c r="T193" t="s">
+        <v>60</v>
+      </c>
+      <c r="U193" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21">
+      <c r="A194" t="s">
+        <v>21</v>
+      </c>
+      <c r="B194" t="s">
+        <v>31</v>
+      </c>
+      <c r="C194" t="s">
+        <v>42</v>
+      </c>
+      <c r="D194" t="s">
+        <v>55</v>
+      </c>
+      <c r="E194" t="s">
+        <v>56</v>
+      </c>
+      <c r="F194">
+        <v>0.0365</v>
+      </c>
+      <c r="G194">
+        <v>0.476367877159615</v>
+      </c>
+      <c r="H194">
+        <v>4.3</v>
+      </c>
+      <c r="I194">
+        <v>3.03</v>
+      </c>
+      <c r="L194">
+        <v>0.006</v>
+      </c>
+      <c r="M194">
+        <v>0.85156</v>
+      </c>
+      <c r="N194">
+        <v>2.5174</v>
+      </c>
+      <c r="O194">
+        <v>1811782</v>
+      </c>
+      <c r="P194">
+        <v>5554501</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>57</v>
+      </c>
+      <c r="R194" t="s">
+        <v>58</v>
+      </c>
+      <c r="S194" t="s">
+        <v>59</v>
+      </c>
+      <c r="T194" t="s">
+        <v>60</v>
+      </c>
+      <c r="U194" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21">
+      <c r="A195" t="s">
+        <v>21</v>
+      </c>
+      <c r="B195" t="s">
+        <v>32</v>
+      </c>
+      <c r="C195" t="s">
+        <v>39</v>
+      </c>
+      <c r="D195" t="s">
+        <v>55</v>
+      </c>
+      <c r="E195" t="s">
+        <v>56</v>
+      </c>
+      <c r="F195">
+        <v>0.0365</v>
+      </c>
+      <c r="G195">
+        <v>0.476367877159615</v>
+      </c>
+      <c r="H195">
+        <v>4.3</v>
+      </c>
+      <c r="I195">
+        <v>3.03</v>
+      </c>
+      <c r="L195">
+        <v>0.006</v>
+      </c>
+      <c r="M195">
+        <v>0.85156</v>
+      </c>
+      <c r="N195">
+        <v>2.5174</v>
+      </c>
+      <c r="O195">
+        <v>1811782</v>
+      </c>
+      <c r="P195">
+        <v>5554501</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>57</v>
+      </c>
+      <c r="R195" t="s">
+        <v>58</v>
+      </c>
+      <c r="S195" t="s">
+        <v>59</v>
+      </c>
+      <c r="T195" t="s">
+        <v>60</v>
+      </c>
+      <c r="U195" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21">
+      <c r="A196" t="s">
+        <v>21</v>
+      </c>
+      <c r="B196" t="s">
+        <v>33</v>
+      </c>
+      <c r="D196" t="s">
+        <v>55</v>
+      </c>
+      <c r="E196" t="s">
+        <v>56</v>
+      </c>
+      <c r="F196">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="G196">
+        <v>0.5064310344827589</v>
+      </c>
+      <c r="H196">
+        <v>4.338</v>
+      </c>
+      <c r="I196">
+        <v>3.0598</v>
+      </c>
+      <c r="L196">
+        <v>0.0215</v>
+      </c>
+      <c r="M196">
+        <v>0.90744</v>
+      </c>
+      <c r="N196">
+        <v>2.58298</v>
+      </c>
+      <c r="O196">
+        <v>1811782</v>
+      </c>
+      <c r="P196">
+        <v>5554501</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>57</v>
+      </c>
+      <c r="R196" t="s">
+        <v>58</v>
+      </c>
+      <c r="S196" t="s">
+        <v>59</v>
+      </c>
+      <c r="T196" t="s">
+        <v>60</v>
+      </c>
+      <c r="U196" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21">
+      <c r="A197" t="s">
+        <v>21</v>
+      </c>
+      <c r="B197" t="s">
+        <v>34</v>
+      </c>
+      <c r="D197" t="s">
+        <v>55</v>
+      </c>
+      <c r="E197" t="s">
+        <v>56</v>
+      </c>
+      <c r="F197">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="G197">
+        <v>0.5064310344827589</v>
+      </c>
+      <c r="H197">
+        <v>4.338</v>
+      </c>
+      <c r="I197">
+        <v>3.0598</v>
+      </c>
+      <c r="L197">
+        <v>0.0215</v>
+      </c>
+      <c r="M197">
+        <v>0.90744</v>
+      </c>
+      <c r="N197">
+        <v>2.58298</v>
+      </c>
+      <c r="O197">
+        <v>1811782</v>
+      </c>
+      <c r="P197">
+        <v>5554501</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>57</v>
+      </c>
+      <c r="R197" t="s">
+        <v>58</v>
+      </c>
+      <c r="S197" t="s">
+        <v>59</v>
+      </c>
+      <c r="T197" t="s">
+        <v>60</v>
+      </c>
+      <c r="U197" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21">
+      <c r="A198" t="s">
+        <v>21</v>
+      </c>
+      <c r="B198" t="s">
+        <v>35</v>
+      </c>
+      <c r="D198" t="s">
+        <v>55</v>
+      </c>
+      <c r="E198" t="s">
+        <v>56</v>
+      </c>
+      <c r="F198">
+        <v>0.7</v>
+      </c>
+      <c r="G198">
+        <v>1.13534482758621</v>
+      </c>
+      <c r="H198">
+        <v>5.29</v>
+      </c>
+      <c r="I198">
+        <v>3.896</v>
+      </c>
+      <c r="L198">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="M198">
+        <v>1.6988</v>
+      </c>
+      <c r="N198">
+        <v>3.6016</v>
+      </c>
+      <c r="O198">
+        <v>1811782</v>
+      </c>
+      <c r="P198">
+        <v>5554501</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>57</v>
+      </c>
+      <c r="R198" t="s">
+        <v>58</v>
+      </c>
+      <c r="S198" t="s">
+        <v>59</v>
+      </c>
+      <c r="T198" t="s">
+        <v>60</v>
+      </c>
+      <c r="U198" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21">
+      <c r="A199" t="s">
+        <v>21</v>
+      </c>
+      <c r="B199" t="s">
+        <v>36</v>
+      </c>
+      <c r="D199" t="s">
+        <v>55</v>
+      </c>
+      <c r="E199" t="s">
+        <v>56</v>
+      </c>
+      <c r="F199">
+        <v>0.7</v>
+      </c>
+      <c r="G199">
+        <v>1.13534482758621</v>
+      </c>
+      <c r="H199">
+        <v>5.29</v>
+      </c>
+      <c r="I199">
+        <v>3.896</v>
+      </c>
+      <c r="L199">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="M199">
+        <v>1.6988</v>
+      </c>
+      <c r="N199">
+        <v>3.6016</v>
+      </c>
+      <c r="O199">
+        <v>1811782</v>
+      </c>
+      <c r="P199">
+        <v>5554501</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>57</v>
+      </c>
+      <c r="R199" t="s">
+        <v>58</v>
+      </c>
+      <c r="S199" t="s">
+        <v>59</v>
+      </c>
+      <c r="T199" t="s">
+        <v>60</v>
+      </c>
+      <c r="U199" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21">
+      <c r="A200" t="s">
+        <v>21</v>
+      </c>
+      <c r="B200" t="s">
+        <v>37</v>
+      </c>
+      <c r="D200" t="s">
+        <v>55</v>
+      </c>
+      <c r="E200" t="s">
+        <v>56</v>
+      </c>
+      <c r="F200">
+        <v>0.103</v>
+      </c>
+      <c r="G200">
+        <v>0.120224137931034</v>
+      </c>
+      <c r="H200">
+        <v>0.443</v>
+      </c>
+      <c r="I200">
+        <v>0.2746</v>
+      </c>
+      <c r="L200">
+        <v>0.113</v>
+      </c>
+      <c r="M200">
+        <v>0.15428</v>
+      </c>
+      <c r="N200">
+        <v>0.2271</v>
+      </c>
+      <c r="O200">
+        <v>1811782</v>
+      </c>
+      <c r="P200">
+        <v>5554501</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>57</v>
+      </c>
+      <c r="R200" t="s">
+        <v>58</v>
+      </c>
+      <c r="S200" t="s">
+        <v>59</v>
+      </c>
+      <c r="T200" t="s">
+        <v>60</v>
+      </c>
+      <c r="U200" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21">
+      <c r="A201" t="s">
+        <v>21</v>
+      </c>
+      <c r="B201" t="s">
+        <v>38</v>
+      </c>
+      <c r="D201" t="s">
+        <v>55</v>
+      </c>
+      <c r="E201" t="s">
+        <v>56</v>
+      </c>
+      <c r="F201">
+        <v>0.103</v>
+      </c>
+      <c r="G201">
+        <v>0.120224137931034</v>
+      </c>
+      <c r="H201">
+        <v>0.443</v>
+      </c>
+      <c r="I201">
+        <v>0.2746</v>
+      </c>
+      <c r="L201">
+        <v>0.113</v>
+      </c>
+      <c r="M201">
+        <v>0.15428</v>
+      </c>
+      <c r="N201">
+        <v>0.2271</v>
+      </c>
+      <c r="O201">
+        <v>1811782</v>
+      </c>
+      <c r="P201">
+        <v>5554501</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>57</v>
+      </c>
+      <c r="R201" t="s">
+        <v>58</v>
+      </c>
+      <c r="S201" t="s">
+        <v>59</v>
+      </c>
+      <c r="T201" t="s">
+        <v>60</v>
+      </c>
+      <c r="U201" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
